--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2819,10 +2819,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:12:59</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>45721.72894113426</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2858,10 +2856,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:12:59</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>45721.72896428241</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2897,10 +2893,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:12:59</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>45721.72898766203</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2936,10 +2930,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:12:59</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>45722.22908445602</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2975,10 +2967,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:12:59</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>45722.22910648148</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3014,10 +3004,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:12:59</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>45722.22912973379</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3053,10 +3041,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:12:59</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>45723.19113143518</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3092,10 +3078,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:12:59</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>45723.19115481481</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3131,10 +3115,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:12:59</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>45723.19117797454</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3166,6 +3148,45 @@
         <v>400</v>
       </c>
       <c r="I73" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-07 16:35:17</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3180,7 +3201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5678,10 +5699,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:29:20</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>45721.72988806713</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5717,10 +5736,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:29:20</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>45721.72991133102</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5756,10 +5773,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:29:20</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>45721.72993467592</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5795,10 +5810,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:29:20</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>45722.23020512731</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5834,10 +5847,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:29:20</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>45722.23022724537</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5873,10 +5884,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:29:20</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>45722.23025050926</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5912,10 +5921,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:29:20</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>45723.19124234954</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5951,10 +5958,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:29:20</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>45723.19126548611</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5986,6 +5991,82 @@
         <v>400</v>
       </c>
       <c r="I75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45723.19128880787</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-07 16:35:27</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6000,7 +6081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8387,10 +8468,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:17:12</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>45721.72979079861</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -8426,10 +8505,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:17:12</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>45721.72981402778</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -8465,10 +8542,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:17:12</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>45721.7298375463</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -8504,10 +8579,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:17:12</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>45722.23010768519</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -8543,10 +8616,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:17:12</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>45722.23012966435</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -8582,10 +8653,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:17:12</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>45722.23015302084</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -8621,10 +8690,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:17:12</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>45723.19132489583</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -8660,10 +8727,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:17:12</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>45723.19134847222</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -8699,10 +8764,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:17:12</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>45723.19137149306</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -8734,6 +8797,45 @@
         <v>400</v>
       </c>
       <c r="I73" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-03-07 16:35:34</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
         <v>255</v>
       </c>
     </row>
@@ -8748,7 +8850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11135,10 +11237,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:20:55</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>45721.72820228009</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -11174,10 +11274,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:20:55</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>45721.7282258449</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -11213,10 +11311,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:20:55</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>45721.72824888889</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -11252,10 +11348,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:20:55</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>45722.22834673611</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -11291,10 +11385,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:20:55</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>45722.22836789352</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -11330,10 +11422,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:20:55</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>45722.22839168982</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -11369,10 +11459,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:20:55</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>45722.72848770834</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -11408,10 +11496,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:20:55</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>45722.72850997685</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -11447,10 +11533,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:20:55</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>45722.72853335648</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -11482,6 +11566,156 @@
         <v>400</v>
       </c>
       <c r="I73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45723.22863142361</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45723.22865329861</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45723.22867643519</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-03-07 17:29:17</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3152,10 +3152,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025-03-07 16:35:17</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>45723.73068421296</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3187,6 +3185,80 @@
         <v>400</v>
       </c>
       <c r="I74" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45723.73070747685</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45723.73073074074</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3201,7 +3273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6032,10 +6104,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2025-03-07 16:35:27</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>45723.57866452546</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6067,6 +6137,119 @@
         <v>400</v>
       </c>
       <c r="I77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45723.57868769676</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45723.57871084491</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-03-08 01:53:20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8850,7 +9033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11681,10 +11864,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2025-03-07 17:29:17</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>45723.72877217593</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -11716,6 +11897,80 @@
         <v>400</v>
       </c>
       <c r="I77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45723.72879484954</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45723.72881799768</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I470"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17804,10 +17804,8 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>2025-03-09 05:32:39</t>
-        </is>
+      <c r="A470" s="2" t="n">
+        <v>45725.23111297454</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -17839,6 +17837,80 @@
         <v>400</v>
       </c>
       <c r="I470" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45725.23113506944</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F471" t="n">
+        <v>400</v>
+      </c>
+      <c r="G471" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H471" t="n">
+        <v>400</v>
+      </c>
+      <c r="I471" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45725.23115855324</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F472" t="n">
+        <v>400</v>
+      </c>
+      <c r="G472" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H472" t="n">
+        <v>400</v>
+      </c>
+      <c r="I472" t="n">
         <v>13</v>
       </c>
     </row>
@@ -17853,7 +17925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I484"/>
+  <dimension ref="A1:I487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35743,10 +35815,8 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>2025-03-09 01:53:45</t>
-        </is>
+      <c r="A484" s="2" t="n">
+        <v>45725.07909302083</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -35778,6 +35848,119 @@
         <v>400</v>
       </c>
       <c r="I484" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45725.07911518519</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F485" t="n">
+        <v>400</v>
+      </c>
+      <c r="G485" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H485" t="n">
+        <v>400</v>
+      </c>
+      <c r="I485" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>400</v>
+      </c>
+      <c r="G486" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H486" t="n">
+        <v>400</v>
+      </c>
+      <c r="I486" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-03-09 13:53:57</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>400</v>
+      </c>
+      <c r="G487" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H487" t="n">
+        <v>400</v>
+      </c>
+      <c r="I487" t="n">
         <v>14</v>
       </c>
     </row>
@@ -51998,7 +52181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I488"/>
+  <dimension ref="A1:I490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70036,10 +70219,8 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>2025-03-09 05:29:54</t>
-        </is>
+      <c r="A488" s="2" t="n">
+        <v>45725.22919952546</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -70071,6 +70252,80 @@
         <v>400</v>
       </c>
       <c r="I488" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45725.22922125</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>400</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H489" t="n">
+        <v>400</v>
+      </c>
+      <c r="I489" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45725.22924497685</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>400</v>
+      </c>
+      <c r="G490" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H490" t="n">
+        <v>400</v>
+      </c>
+      <c r="I490" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I476"/>
+  <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -18026,10 +18026,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>2025-03-09 17:32:52</t>
-        </is>
+      <c r="A476" s="2" t="n">
+        <v>45725.23115855324</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -18061,6 +18059,191 @@
         <v>400</v>
       </c>
       <c r="I476" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45725.23115855324</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F477" t="n">
+        <v>400</v>
+      </c>
+      <c r="G477" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H477" t="n">
+        <v>400</v>
+      </c>
+      <c r="I477" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45725.23115855324</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>400</v>
+      </c>
+      <c r="G478" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H478" t="n">
+        <v>400</v>
+      </c>
+      <c r="I478" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45725.73125641204</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F479" t="n">
+        <v>400</v>
+      </c>
+      <c r="G479" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H479" t="n">
+        <v>400</v>
+      </c>
+      <c r="I479" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F480" t="n">
+        <v>400</v>
+      </c>
+      <c r="G480" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H480" t="n">
+        <v>400</v>
+      </c>
+      <c r="I480" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>400</v>
+      </c>
+      <c r="G481" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H481" t="n">
+        <v>400</v>
+      </c>
+      <c r="I481" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18075,7 +18258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I490"/>
+  <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36040,7 +36223,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -36114,7 +36297,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -36151,7 +36334,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -36187,10 +36370,8 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>2025-03-09 13:53:57</t>
-        </is>
+      <c r="A490" s="2" t="n">
+        <v>45725.07913833333</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -36222,6 +36403,230 @@
         <v>400</v>
       </c>
       <c r="I490" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F491" t="n">
+        <v>400</v>
+      </c>
+      <c r="G491" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H491" t="n">
+        <v>400</v>
+      </c>
+      <c r="I491" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F492" t="n">
+        <v>400</v>
+      </c>
+      <c r="G492" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H492" t="n">
+        <v>400</v>
+      </c>
+      <c r="I492" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45725.57923533564</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>400</v>
+      </c>
+      <c r="G493" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H493" t="n">
+        <v>400</v>
+      </c>
+      <c r="I493" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F494" t="n">
+        <v>400</v>
+      </c>
+      <c r="G494" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H494" t="n">
+        <v>400</v>
+      </c>
+      <c r="I494" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>400</v>
+      </c>
+      <c r="G495" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H495" t="n">
+        <v>400</v>
+      </c>
+      <c r="I495" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-03-10 01:54:09</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>400</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H496" t="n">
+        <v>400</v>
+      </c>
+      <c r="I496" t="n">
         <v>14</v>
       </c>
     </row>
@@ -52481,7 +52886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I494"/>
+  <dimension ref="A1:I499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70594,7 +70999,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -70668,7 +71073,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -70705,7 +71110,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -70741,10 +71146,8 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>2025-03-09 17:30:06</t>
-        </is>
+      <c r="A494" s="2" t="n">
+        <v>45725.22924497685</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -70776,6 +71179,191 @@
         <v>400</v>
       </c>
       <c r="I494" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45725.22924497685</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>400</v>
+      </c>
+      <c r="G495" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H495" t="n">
+        <v>400</v>
+      </c>
+      <c r="I495" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45725.22924497685</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>400</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H496" t="n">
+        <v>400</v>
+      </c>
+      <c r="I496" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45725.7293421412</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>400</v>
+      </c>
+      <c r="G497" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H497" t="n">
+        <v>400</v>
+      </c>
+      <c r="I497" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>400</v>
+      </c>
+      <c r="G498" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H498" t="n">
+        <v>400</v>
+      </c>
+      <c r="I498" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>400</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H499" t="n">
+        <v>400</v>
+      </c>
+      <c r="I499" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I481"/>
+  <dimension ref="A1:I488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17916,7 +17916,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -18212,38 +18212,299 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
+        <v>45725.23115855324</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>400</v>
+      </c>
+      <c r="G481" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H481" t="n">
+        <v>400</v>
+      </c>
+      <c r="I481" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45725.73125641204</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F482" t="n">
+        <v>400</v>
+      </c>
+      <c r="G482" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H482" t="n">
+        <v>400</v>
+      </c>
+      <c r="I482" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45725.73125641204</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F483" t="n">
+        <v>400</v>
+      </c>
+      <c r="G483" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H483" t="n">
+        <v>400</v>
+      </c>
+      <c r="I483" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F484" t="n">
+        <v>400</v>
+      </c>
+      <c r="G484" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H484" t="n">
+        <v>400</v>
+      </c>
+      <c r="I484" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F485" t="n">
+        <v>400</v>
+      </c>
+      <c r="G485" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H485" t="n">
+        <v>400</v>
+      </c>
+      <c r="I485" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
         <v>45725.73130123843</v>
       </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D481" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E481" t="inlineStr">
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F481" t="n">
-        <v>400</v>
-      </c>
-      <c r="G481" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H481" t="n">
-        <v>400</v>
-      </c>
-      <c r="I481" t="n">
+      <c r="F486" t="n">
+        <v>400</v>
+      </c>
+      <c r="G486" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H486" t="n">
+        <v>400</v>
+      </c>
+      <c r="I486" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>400</v>
+      </c>
+      <c r="G487" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H487" t="n">
+        <v>400</v>
+      </c>
+      <c r="I487" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-03-10 05:33:04</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F488" t="n">
+        <v>400</v>
+      </c>
+      <c r="G488" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H488" t="n">
+        <v>400</v>
+      </c>
+      <c r="I488" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18258,7 +18519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I496"/>
+  <dimension ref="A1:I502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36260,7 +36521,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -36371,7 +36632,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -36408,7 +36669,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -36482,7 +36743,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -36519,7 +36780,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -36556,7 +36817,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -36592,41 +36853,263 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr">
+      <c r="A496" s="2" t="n">
+        <v>45725.57923533564</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>400</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H496" t="n">
+        <v>400</v>
+      </c>
+      <c r="I496" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45725.57923533564</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>400</v>
+      </c>
+      <c r="G497" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H497" t="n">
+        <v>400</v>
+      </c>
+      <c r="I497" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>400</v>
+      </c>
+      <c r="G498" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H498" t="n">
+        <v>400</v>
+      </c>
+      <c r="I498" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>400</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H499" t="n">
+        <v>400</v>
+      </c>
+      <c r="I499" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F500" t="n">
+        <v>400</v>
+      </c>
+      <c r="G500" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H500" t="n">
+        <v>400</v>
+      </c>
+      <c r="I500" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>400</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H501" t="n">
+        <v>400</v>
+      </c>
+      <c r="I501" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
         <is>
           <t>2025-03-10 01:54:09</t>
         </is>
       </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E496" t="inlineStr">
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F496" t="n">
-        <v>400</v>
-      </c>
-      <c r="G496" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H496" t="n">
-        <v>400</v>
-      </c>
-      <c r="I496" t="n">
+      <c r="F502" t="n">
+        <v>400</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H502" t="n">
+        <v>400</v>
+      </c>
+      <c r="I502" t="n">
         <v>14</v>
       </c>
     </row>
@@ -36641,7 +37124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:I439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52872,6 +53355,45 @@
         <v>400</v>
       </c>
       <c r="I438" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-03-10 04:35:34</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F439" t="n">
+        <v>400</v>
+      </c>
+      <c r="G439" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H439" t="n">
+        <v>400</v>
+      </c>
+      <c r="I439" t="n">
         <v>255</v>
       </c>
     </row>
@@ -52886,7 +53408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I499"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71036,7 +71558,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -71147,7 +71669,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -71184,7 +71706,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -71258,7 +71780,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -71295,7 +71817,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -71332,38 +71854,299 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
+        <v>45725.22924497685</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>400</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H499" t="n">
+        <v>400</v>
+      </c>
+      <c r="I499" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45725.7293421412</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F500" t="n">
+        <v>400</v>
+      </c>
+      <c r="G500" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H500" t="n">
+        <v>400</v>
+      </c>
+      <c r="I500" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45725.7293421412</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>400</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H501" t="n">
+        <v>400</v>
+      </c>
+      <c r="I501" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>400</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H502" t="n">
+        <v>400</v>
+      </c>
+      <c r="I502" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>400</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H503" t="n">
+        <v>400</v>
+      </c>
+      <c r="I503" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
         <v>45725.7293875</v>
       </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E499" t="inlineStr">
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F499" t="n">
-        <v>400</v>
-      </c>
-      <c r="G499" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H499" t="n">
-        <v>400</v>
-      </c>
-      <c r="I499" t="n">
+      <c r="F504" t="n">
+        <v>400</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H504" t="n">
+        <v>400</v>
+      </c>
+      <c r="I504" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>400</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H505" t="n">
+        <v>400</v>
+      </c>
+      <c r="I505" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-03-10 05:30:19</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>400</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H506" t="n">
+        <v>400</v>
+      </c>
+      <c r="I506" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I488"/>
+  <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17953,7 +17953,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -18470,10 +18470,8 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>2025-03-10 05:33:04</t>
-        </is>
+      <c r="A488" s="2" t="n">
+        <v>45725.73127832176</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -18505,6 +18503,302 @@
         <v>400</v>
       </c>
       <c r="I488" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>400</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H489" t="n">
+        <v>400</v>
+      </c>
+      <c r="I489" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>400</v>
+      </c>
+      <c r="G490" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H490" t="n">
+        <v>400</v>
+      </c>
+      <c r="I490" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F491" t="n">
+        <v>400</v>
+      </c>
+      <c r="G491" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H491" t="n">
+        <v>400</v>
+      </c>
+      <c r="I491" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F492" t="n">
+        <v>400</v>
+      </c>
+      <c r="G492" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H492" t="n">
+        <v>400</v>
+      </c>
+      <c r="I492" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>400</v>
+      </c>
+      <c r="G493" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H493" t="n">
+        <v>400</v>
+      </c>
+      <c r="I493" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F494" t="n">
+        <v>400</v>
+      </c>
+      <c r="G494" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H494" t="n">
+        <v>400</v>
+      </c>
+      <c r="I494" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>400</v>
+      </c>
+      <c r="G495" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H495" t="n">
+        <v>400</v>
+      </c>
+      <c r="I495" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>400</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H496" t="n">
+        <v>400</v>
+      </c>
+      <c r="I496" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18519,7 +18813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I502"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36558,7 +36852,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -36706,7 +37000,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -36743,7 +37037,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -36854,7 +37148,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -36891,7 +37185,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -36928,7 +37222,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -36965,7 +37259,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -37002,7 +37296,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -37039,7 +37333,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -37075,10 +37369,8 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>2025-03-10 01:54:09</t>
-        </is>
+      <c r="A502" s="2" t="n">
+        <v>45725.57925716435</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -37110,6 +37402,341 @@
         <v>400</v>
       </c>
       <c r="I502" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>400</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H503" t="n">
+        <v>400</v>
+      </c>
+      <c r="I503" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F504" t="n">
+        <v>400</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H504" t="n">
+        <v>400</v>
+      </c>
+      <c r="I504" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>400</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H505" t="n">
+        <v>400</v>
+      </c>
+      <c r="I505" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>400</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H506" t="n">
+        <v>400</v>
+      </c>
+      <c r="I506" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>400</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H507" t="n">
+        <v>400</v>
+      </c>
+      <c r="I507" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>400</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H508" t="n">
+        <v>400</v>
+      </c>
+      <c r="I508" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>400</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H509" t="n">
+        <v>400</v>
+      </c>
+      <c r="I509" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>400</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H510" t="n">
+        <v>400</v>
+      </c>
+      <c r="I510" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-03-10 13:54:22</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>400</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H511" t="n">
+        <v>400</v>
+      </c>
+      <c r="I511" t="n">
         <v>14</v>
       </c>
     </row>
@@ -53408,7 +54035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71595,7 +72222,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -71743,7 +72370,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -71780,7 +72407,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -71891,7 +72518,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -71928,7 +72555,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -71965,7 +72592,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -72002,7 +72629,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -72039,7 +72666,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -72076,7 +72703,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -72112,10 +72739,8 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>2025-03-10 05:30:19</t>
-        </is>
+      <c r="A506" s="2" t="n">
+        <v>45725.72936453704</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -72147,6 +72772,302 @@
         <v>400</v>
       </c>
       <c r="I506" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>400</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H507" t="n">
+        <v>400</v>
+      </c>
+      <c r="I507" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>400</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H508" t="n">
+        <v>400</v>
+      </c>
+      <c r="I508" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>400</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H509" t="n">
+        <v>400</v>
+      </c>
+      <c r="I509" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>400</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H510" t="n">
+        <v>400</v>
+      </c>
+      <c r="I510" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>400</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H511" t="n">
+        <v>400</v>
+      </c>
+      <c r="I511" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>400</v>
+      </c>
+      <c r="G512" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H512" t="n">
+        <v>400</v>
+      </c>
+      <c r="I512" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>400</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H513" t="n">
+        <v>400</v>
+      </c>
+      <c r="I513" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>400</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H514" t="n">
+        <v>400</v>
+      </c>
+      <c r="I514" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I496"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17990,7 +17990,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -18767,38 +18767,410 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>400</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H496" t="n">
+        <v>400</v>
+      </c>
+      <c r="I496" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>400</v>
+      </c>
+      <c r="G497" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H497" t="n">
+        <v>400</v>
+      </c>
+      <c r="I497" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>400</v>
+      </c>
+      <c r="G498" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H498" t="n">
+        <v>400</v>
+      </c>
+      <c r="I498" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>400</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H499" t="n">
+        <v>400</v>
+      </c>
+      <c r="I499" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F500" t="n">
+        <v>400</v>
+      </c>
+      <c r="G500" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H500" t="n">
+        <v>400</v>
+      </c>
+      <c r="I500" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>400</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H501" t="n">
+        <v>400</v>
+      </c>
+      <c r="I501" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>400</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H502" t="n">
+        <v>400</v>
+      </c>
+      <c r="I502" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>400</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H503" t="n">
+        <v>400</v>
+      </c>
+      <c r="I503" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
         <v>45726.23144357639</v>
       </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E496" t="inlineStr">
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F496" t="n">
-        <v>400</v>
-      </c>
-      <c r="G496" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H496" t="n">
-        <v>400</v>
-      </c>
-      <c r="I496" t="n">
+      <c r="F504" t="n">
+        <v>400</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H504" t="n">
+        <v>400</v>
+      </c>
+      <c r="I504" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>400</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H505" t="n">
+        <v>400</v>
+      </c>
+      <c r="I505" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-03-10 17:33:16</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>400</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H506" t="n">
+        <v>400</v>
+      </c>
+      <c r="I506" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18813,7 +19185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36889,7 +37261,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -37074,7 +37446,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -37111,7 +37483,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -37259,7 +37631,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -37296,7 +37668,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -37333,7 +37705,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -37370,7 +37742,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -37407,7 +37779,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -37444,7 +37816,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -37481,7 +37853,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -37518,7 +37890,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -37555,7 +37927,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -37592,7 +37964,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -37629,7 +38001,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -37666,7 +38038,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -37702,41 +38074,374 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
+      <c r="A511" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>400</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H511" t="n">
+        <v>400</v>
+      </c>
+      <c r="I511" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>400</v>
+      </c>
+      <c r="G512" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H512" t="n">
+        <v>400</v>
+      </c>
+      <c r="I512" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>400</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H513" t="n">
+        <v>400</v>
+      </c>
+      <c r="I513" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>400</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H514" t="n">
+        <v>400</v>
+      </c>
+      <c r="I514" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>400</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H515" t="n">
+        <v>400</v>
+      </c>
+      <c r="I515" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>400</v>
+      </c>
+      <c r="G516" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H516" t="n">
+        <v>400</v>
+      </c>
+      <c r="I516" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>400</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H517" t="n">
+        <v>400</v>
+      </c>
+      <c r="I517" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>400</v>
+      </c>
+      <c r="G518" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H518" t="n">
+        <v>400</v>
+      </c>
+      <c r="I518" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>400</v>
+      </c>
+      <c r="G519" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H519" t="n">
+        <v>400</v>
+      </c>
+      <c r="I519" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
         <is>
           <t>2025-03-10 13:54:22</t>
         </is>
       </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr">
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F511" t="n">
-        <v>400</v>
-      </c>
-      <c r="G511" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H511" t="n">
-        <v>400</v>
-      </c>
-      <c r="I511" t="n">
+      <c r="F520" t="n">
+        <v>400</v>
+      </c>
+      <c r="G520" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H520" t="n">
+        <v>400</v>
+      </c>
+      <c r="I520" t="n">
         <v>14</v>
       </c>
     </row>
@@ -37751,7 +38456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I439"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54021,6 +54726,45 @@
         <v>400</v>
       </c>
       <c r="I439" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-03-10 16:35:34</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>400</v>
+      </c>
+      <c r="G440" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H440" t="n">
+        <v>400</v>
+      </c>
+      <c r="I440" t="n">
         <v>255</v>
       </c>
     </row>
@@ -54035,7 +54779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I514"/>
+  <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72259,7 +73003,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -72444,7 +73188,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -72481,7 +73225,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -72629,7 +73373,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -72666,7 +73410,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -72703,7 +73447,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -72740,7 +73484,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -72777,7 +73521,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -72814,7 +73558,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -72851,7 +73595,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -72888,7 +73632,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -72925,7 +73669,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -72962,7 +73706,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -72999,7 +73743,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -73036,38 +73780,410 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>400</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H514" t="n">
+        <v>400</v>
+      </c>
+      <c r="I514" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>400</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H515" t="n">
+        <v>400</v>
+      </c>
+      <c r="I515" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>400</v>
+      </c>
+      <c r="G516" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H516" t="n">
+        <v>400</v>
+      </c>
+      <c r="I516" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>400</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H517" t="n">
+        <v>400</v>
+      </c>
+      <c r="I517" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>400</v>
+      </c>
+      <c r="G518" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H518" t="n">
+        <v>400</v>
+      </c>
+      <c r="I518" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>400</v>
+      </c>
+      <c r="G519" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H519" t="n">
+        <v>400</v>
+      </c>
+      <c r="I519" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>400</v>
+      </c>
+      <c r="G520" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H520" t="n">
+        <v>400</v>
+      </c>
+      <c r="I520" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>400</v>
+      </c>
+      <c r="G521" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H521" t="n">
+        <v>400</v>
+      </c>
+      <c r="I521" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
         <v>45726.22953034722</v>
       </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr">
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F514" t="n">
-        <v>400</v>
-      </c>
-      <c r="G514" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H514" t="n">
-        <v>400</v>
-      </c>
-      <c r="I514" t="n">
+      <c r="F522" t="n">
+        <v>400</v>
+      </c>
+      <c r="G522" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H522" t="n">
+        <v>400</v>
+      </c>
+      <c r="I522" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>400</v>
+      </c>
+      <c r="G523" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H523" t="n">
+        <v>400</v>
+      </c>
+      <c r="I523" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-03-10 17:30:31</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>400</v>
+      </c>
+      <c r="G524" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H524" t="n">
+        <v>400</v>
+      </c>
+      <c r="I524" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18027,7 +18027,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -19136,10 +19136,8 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>2025-03-10 17:33:16</t>
-        </is>
+      <c r="A506" s="2" t="n">
+        <v>45726.23139893518</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -19171,6 +19169,413 @@
         <v>400</v>
       </c>
       <c r="I506" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>400</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H507" t="n">
+        <v>400</v>
+      </c>
+      <c r="I507" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>400</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H508" t="n">
+        <v>400</v>
+      </c>
+      <c r="I508" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>400</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H509" t="n">
+        <v>400</v>
+      </c>
+      <c r="I509" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>400</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H510" t="n">
+        <v>400</v>
+      </c>
+      <c r="I510" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>400</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H511" t="n">
+        <v>400</v>
+      </c>
+      <c r="I511" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>400</v>
+      </c>
+      <c r="G512" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H512" t="n">
+        <v>400</v>
+      </c>
+      <c r="I512" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>400</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H513" t="n">
+        <v>400</v>
+      </c>
+      <c r="I513" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>400</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H514" t="n">
+        <v>400</v>
+      </c>
+      <c r="I514" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>400</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H515" t="n">
+        <v>400</v>
+      </c>
+      <c r="I515" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>400</v>
+      </c>
+      <c r="G516" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H516" t="n">
+        <v>400</v>
+      </c>
+      <c r="I516" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>400</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H517" t="n">
+        <v>400</v>
+      </c>
+      <c r="I517" t="n">
         <v>13</v>
       </c>
     </row>
@@ -19185,7 +19590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I520"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37298,7 +37703,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -37520,7 +37925,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -37557,7 +37962,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -37742,7 +38147,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -37779,7 +38184,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -37816,7 +38221,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -37890,7 +38295,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -37927,7 +38332,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -37964,7 +38369,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -38001,7 +38406,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -38038,7 +38443,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -38075,7 +38480,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -38112,7 +38517,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -38149,7 +38554,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -38186,7 +38591,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -38223,7 +38628,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -38260,7 +38665,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -38297,7 +38702,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -38334,7 +38739,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -38371,7 +38776,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -38407,10 +38812,8 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>2025-03-10 13:54:22</t>
-        </is>
+      <c r="A520" s="2" t="n">
+        <v>45726.07937777778</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -38442,6 +38845,452 @@
         <v>400</v>
       </c>
       <c r="I520" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>400</v>
+      </c>
+      <c r="G521" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H521" t="n">
+        <v>400</v>
+      </c>
+      <c r="I521" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>400</v>
+      </c>
+      <c r="G522" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H522" t="n">
+        <v>400</v>
+      </c>
+      <c r="I522" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>400</v>
+      </c>
+      <c r="G523" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H523" t="n">
+        <v>400</v>
+      </c>
+      <c r="I523" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>400</v>
+      </c>
+      <c r="G524" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H524" t="n">
+        <v>400</v>
+      </c>
+      <c r="I524" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>400</v>
+      </c>
+      <c r="G525" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H525" t="n">
+        <v>400</v>
+      </c>
+      <c r="I525" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>400</v>
+      </c>
+      <c r="G526" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H526" t="n">
+        <v>400</v>
+      </c>
+      <c r="I526" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>400</v>
+      </c>
+      <c r="G527" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H527" t="n">
+        <v>400</v>
+      </c>
+      <c r="I527" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>400</v>
+      </c>
+      <c r="G528" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H528" t="n">
+        <v>400</v>
+      </c>
+      <c r="I528" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>400</v>
+      </c>
+      <c r="G529" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H529" t="n">
+        <v>400</v>
+      </c>
+      <c r="I529" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>400</v>
+      </c>
+      <c r="G530" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H530" t="n">
+        <v>400</v>
+      </c>
+      <c r="I530" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>400</v>
+      </c>
+      <c r="G531" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H531" t="n">
+        <v>400</v>
+      </c>
+      <c r="I531" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-03-11 01:54:34</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>400</v>
+      </c>
+      <c r="G532" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H532" t="n">
+        <v>400</v>
+      </c>
+      <c r="I532" t="n">
         <v>14</v>
       </c>
     </row>
@@ -54779,7 +55628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I524"/>
+  <dimension ref="A1:I535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73040,7 +73889,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -73262,7 +74111,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -73299,7 +74148,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -73484,7 +74333,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -73521,7 +74370,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -73558,7 +74407,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -73632,7 +74481,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -73669,7 +74518,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -73706,7 +74555,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -73743,7 +74592,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -73780,7 +74629,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -73817,7 +74666,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -73854,7 +74703,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -73891,7 +74740,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -73928,7 +74777,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -73965,7 +74814,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -74002,7 +74851,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -74039,7 +74888,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -74076,7 +74925,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -74113,7 +74962,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -74149,10 +74998,8 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>2025-03-10 17:30:31</t>
-        </is>
+      <c r="A524" s="2" t="n">
+        <v>45726.2294844213</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -74184,6 +75031,413 @@
         <v>400</v>
       </c>
       <c r="I524" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>400</v>
+      </c>
+      <c r="G525" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H525" t="n">
+        <v>400</v>
+      </c>
+      <c r="I525" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>400</v>
+      </c>
+      <c r="G526" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H526" t="n">
+        <v>400</v>
+      </c>
+      <c r="I526" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>400</v>
+      </c>
+      <c r="G527" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H527" t="n">
+        <v>400</v>
+      </c>
+      <c r="I527" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>400</v>
+      </c>
+      <c r="G528" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H528" t="n">
+        <v>400</v>
+      </c>
+      <c r="I528" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>400</v>
+      </c>
+      <c r="G529" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H529" t="n">
+        <v>400</v>
+      </c>
+      <c r="I529" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>400</v>
+      </c>
+      <c r="G530" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H530" t="n">
+        <v>400</v>
+      </c>
+      <c r="I530" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>400</v>
+      </c>
+      <c r="G531" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H531" t="n">
+        <v>400</v>
+      </c>
+      <c r="I531" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>400</v>
+      </c>
+      <c r="G532" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H532" t="n">
+        <v>400</v>
+      </c>
+      <c r="I532" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>400</v>
+      </c>
+      <c r="G533" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H533" t="n">
+        <v>400</v>
+      </c>
+      <c r="I533" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>400</v>
+      </c>
+      <c r="G534" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H534" t="n">
+        <v>400</v>
+      </c>
+      <c r="I534" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>400</v>
+      </c>
+      <c r="G535" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H535" t="n">
+        <v>400</v>
+      </c>
+      <c r="I535" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:I530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18064,7 +18064,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,38 +19544,521 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>400</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H517" t="n">
+        <v>400</v>
+      </c>
+      <c r="I517" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>400</v>
+      </c>
+      <c r="G518" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H518" t="n">
+        <v>400</v>
+      </c>
+      <c r="I518" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>400</v>
+      </c>
+      <c r="G519" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H519" t="n">
+        <v>400</v>
+      </c>
+      <c r="I519" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>400</v>
+      </c>
+      <c r="G520" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H520" t="n">
+        <v>400</v>
+      </c>
+      <c r="I520" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>400</v>
+      </c>
+      <c r="G521" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H521" t="n">
+        <v>400</v>
+      </c>
+      <c r="I521" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>400</v>
+      </c>
+      <c r="G522" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H522" t="n">
+        <v>400</v>
+      </c>
+      <c r="I522" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>400</v>
+      </c>
+      <c r="G523" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H523" t="n">
+        <v>400</v>
+      </c>
+      <c r="I523" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>400</v>
+      </c>
+      <c r="G524" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H524" t="n">
+        <v>400</v>
+      </c>
+      <c r="I524" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>400</v>
+      </c>
+      <c r="G525" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H525" t="n">
+        <v>400</v>
+      </c>
+      <c r="I525" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>400</v>
+      </c>
+      <c r="G526" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H526" t="n">
+        <v>400</v>
+      </c>
+      <c r="I526" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>400</v>
+      </c>
+      <c r="G527" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H527" t="n">
+        <v>400</v>
+      </c>
+      <c r="I527" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
         <v>45726.73158645834</v>
       </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr">
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F517" t="n">
-        <v>400</v>
-      </c>
-      <c r="G517" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H517" t="n">
-        <v>400</v>
-      </c>
-      <c r="I517" t="n">
+      <c r="F528" t="n">
+        <v>400</v>
+      </c>
+      <c r="G528" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H528" t="n">
+        <v>400</v>
+      </c>
+      <c r="I528" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>400</v>
+      </c>
+      <c r="G529" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H529" t="n">
+        <v>400</v>
+      </c>
+      <c r="I529" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-03-11 05:33:29</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>400</v>
+      </c>
+      <c r="G530" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H530" t="n">
+        <v>400</v>
+      </c>
+      <c r="I530" t="n">
         <v>13</v>
       </c>
     </row>
@@ -19590,7 +20073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37740,7 +38223,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -37999,7 +38482,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -38036,7 +38519,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -38258,7 +38741,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -38295,7 +38778,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -38332,7 +38815,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -38443,7 +38926,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -38480,7 +38963,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -38517,7 +39000,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -38554,7 +39037,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -38628,7 +39111,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -38665,7 +39148,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -38702,7 +39185,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -38739,7 +39222,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -38776,7 +39259,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -38813,7 +39296,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -38850,7 +39333,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -38887,7 +39370,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -38924,7 +39407,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -38961,7 +39444,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -38998,7 +39481,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -39035,7 +39518,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -39072,7 +39555,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -39109,7 +39592,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -39146,7 +39629,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -39183,7 +39666,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -39220,7 +39703,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -39256,41 +39739,485 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr">
+      <c r="A532" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>400</v>
+      </c>
+      <c r="G532" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H532" t="n">
+        <v>400</v>
+      </c>
+      <c r="I532" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>400</v>
+      </c>
+      <c r="G533" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H533" t="n">
+        <v>400</v>
+      </c>
+      <c r="I533" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>400</v>
+      </c>
+      <c r="G534" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H534" t="n">
+        <v>400</v>
+      </c>
+      <c r="I534" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>400</v>
+      </c>
+      <c r="G535" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H535" t="n">
+        <v>400</v>
+      </c>
+      <c r="I535" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>400</v>
+      </c>
+      <c r="G536" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H536" t="n">
+        <v>400</v>
+      </c>
+      <c r="I536" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>400</v>
+      </c>
+      <c r="G537" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H537" t="n">
+        <v>400</v>
+      </c>
+      <c r="I537" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>400</v>
+      </c>
+      <c r="G538" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H538" t="n">
+        <v>400</v>
+      </c>
+      <c r="I538" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>400</v>
+      </c>
+      <c r="G539" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H539" t="n">
+        <v>400</v>
+      </c>
+      <c r="I539" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>400</v>
+      </c>
+      <c r="G540" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H540" t="n">
+        <v>400</v>
+      </c>
+      <c r="I540" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>400</v>
+      </c>
+      <c r="G541" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H541" t="n">
+        <v>400</v>
+      </c>
+      <c r="I541" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>400</v>
+      </c>
+      <c r="G542" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H542" t="n">
+        <v>400</v>
+      </c>
+      <c r="I542" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>400</v>
+      </c>
+      <c r="G543" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H543" t="n">
+        <v>400</v>
+      </c>
+      <c r="I543" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
         <is>
           <t>2025-03-11 01:54:34</t>
         </is>
       </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr">
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F532" t="n">
-        <v>400</v>
-      </c>
-      <c r="G532" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H532" t="n">
-        <v>400</v>
-      </c>
-      <c r="I532" t="n">
+      <c r="F544" t="n">
+        <v>400</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H544" t="n">
+        <v>400</v>
+      </c>
+      <c r="I544" t="n">
         <v>14</v>
       </c>
     </row>
@@ -39305,7 +40232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I440"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55614,6 +56541,45 @@
         <v>400</v>
       </c>
       <c r="I440" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-03-11 04:35:34</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F441" t="n">
+        <v>400</v>
+      </c>
+      <c r="G441" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H441" t="n">
+        <v>400</v>
+      </c>
+      <c r="I441" t="n">
         <v>255</v>
       </c>
     </row>
@@ -55628,7 +56594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:I548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73926,7 +74892,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -74185,7 +75151,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -74222,7 +75188,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -74444,7 +75410,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -74481,7 +75447,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -74518,7 +75484,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -74629,7 +75595,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -74666,7 +75632,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -74703,7 +75669,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -74740,7 +75706,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -74814,7 +75780,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -74851,7 +75817,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -74888,7 +75854,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -74925,7 +75891,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -74962,7 +75928,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -74999,7 +75965,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -75036,7 +76002,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -75073,7 +76039,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -75110,7 +76076,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -75147,7 +76113,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -75184,7 +76150,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -75221,7 +76187,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -75258,7 +76224,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -75295,7 +76261,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -75332,7 +76298,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -75369,7 +76335,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -75406,38 +76372,521 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>400</v>
+      </c>
+      <c r="G535" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H535" t="n">
+        <v>400</v>
+      </c>
+      <c r="I535" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>400</v>
+      </c>
+      <c r="G536" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H536" t="n">
+        <v>400</v>
+      </c>
+      <c r="I536" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>400</v>
+      </c>
+      <c r="G537" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H537" t="n">
+        <v>400</v>
+      </c>
+      <c r="I537" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>400</v>
+      </c>
+      <c r="G538" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H538" t="n">
+        <v>400</v>
+      </c>
+      <c r="I538" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>400</v>
+      </c>
+      <c r="G539" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H539" t="n">
+        <v>400</v>
+      </c>
+      <c r="I539" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>400</v>
+      </c>
+      <c r="G540" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H540" t="n">
+        <v>400</v>
+      </c>
+      <c r="I540" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>400</v>
+      </c>
+      <c r="G541" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H541" t="n">
+        <v>400</v>
+      </c>
+      <c r="I541" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>400</v>
+      </c>
+      <c r="G542" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H542" t="n">
+        <v>400</v>
+      </c>
+      <c r="I542" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>400</v>
+      </c>
+      <c r="G543" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H543" t="n">
+        <v>400</v>
+      </c>
+      <c r="I543" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>400</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H544" t="n">
+        <v>400</v>
+      </c>
+      <c r="I544" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>400</v>
+      </c>
+      <c r="G545" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H545" t="n">
+        <v>400</v>
+      </c>
+      <c r="I545" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
         <v>45726.72967174769</v>
       </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr">
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F535" t="n">
-        <v>400</v>
-      </c>
-      <c r="G535" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H535" t="n">
-        <v>400</v>
-      </c>
-      <c r="I535" t="n">
+      <c r="F546" t="n">
+        <v>400</v>
+      </c>
+      <c r="G546" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H546" t="n">
+        <v>400</v>
+      </c>
+      <c r="I546" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>400</v>
+      </c>
+      <c r="G547" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H547" t="n">
+        <v>400</v>
+      </c>
+      <c r="I547" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-03-11 05:30:43</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>400</v>
+      </c>
+      <c r="G548" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H548" t="n">
+        <v>400</v>
+      </c>
+      <c r="I548" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -20024,10 +20024,8 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>2025-03-11 05:33:29</t>
-        </is>
+      <c r="A530" s="2" t="n">
+        <v>45726.23144357639</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20059,6 +20057,524 @@
         <v>400</v>
       </c>
       <c r="I530" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>400</v>
+      </c>
+      <c r="G531" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H531" t="n">
+        <v>400</v>
+      </c>
+      <c r="I531" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>400</v>
+      </c>
+      <c r="G532" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H532" t="n">
+        <v>400</v>
+      </c>
+      <c r="I532" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>400</v>
+      </c>
+      <c r="G533" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H533" t="n">
+        <v>400</v>
+      </c>
+      <c r="I533" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>400</v>
+      </c>
+      <c r="G534" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H534" t="n">
+        <v>400</v>
+      </c>
+      <c r="I534" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>400</v>
+      </c>
+      <c r="G535" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H535" t="n">
+        <v>400</v>
+      </c>
+      <c r="I535" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>400</v>
+      </c>
+      <c r="G536" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H536" t="n">
+        <v>400</v>
+      </c>
+      <c r="I536" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>400</v>
+      </c>
+      <c r="G537" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H537" t="n">
+        <v>400</v>
+      </c>
+      <c r="I537" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>400</v>
+      </c>
+      <c r="G538" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H538" t="n">
+        <v>400</v>
+      </c>
+      <c r="I538" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>400</v>
+      </c>
+      <c r="G539" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H539" t="n">
+        <v>400</v>
+      </c>
+      <c r="I539" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>400</v>
+      </c>
+      <c r="G540" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H540" t="n">
+        <v>400</v>
+      </c>
+      <c r="I540" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>400</v>
+      </c>
+      <c r="G541" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H541" t="n">
+        <v>400</v>
+      </c>
+      <c r="I541" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>400</v>
+      </c>
+      <c r="G542" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H542" t="n">
+        <v>400</v>
+      </c>
+      <c r="I542" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>400</v>
+      </c>
+      <c r="G543" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H543" t="n">
+        <v>400</v>
+      </c>
+      <c r="I543" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>400</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H544" t="n">
+        <v>400</v>
+      </c>
+      <c r="I544" t="n">
         <v>13</v>
       </c>
     </row>
@@ -20073,7 +20589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38260,7 +38776,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -38556,7 +39072,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -38593,7 +39109,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -38852,7 +39368,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -38889,7 +39405,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -38926,7 +39442,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -39074,7 +39590,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -39111,7 +39627,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -39148,7 +39664,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -39185,7 +39701,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -39296,7 +39812,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -39333,7 +39849,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -39370,7 +39886,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -39407,7 +39923,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -39444,7 +39960,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -39518,7 +40034,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -39555,7 +40071,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -39592,7 +40108,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -39629,7 +40145,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -39666,7 +40182,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -39703,7 +40219,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -39740,7 +40256,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -39777,7 +40293,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -39814,7 +40330,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -39851,7 +40367,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -39888,7 +40404,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -39925,7 +40441,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -39962,7 +40478,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -39999,7 +40515,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -40036,7 +40552,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -40073,7 +40589,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -40110,7 +40626,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -40147,7 +40663,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -40183,10 +40699,8 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>2025-03-11 01:54:34</t>
-        </is>
+      <c r="A544" s="2" t="n">
+        <v>45726.07942256945</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -40218,6 +40732,563 @@
         <v>400</v>
       </c>
       <c r="I544" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>400</v>
+      </c>
+      <c r="G545" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H545" t="n">
+        <v>400</v>
+      </c>
+      <c r="I545" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>400</v>
+      </c>
+      <c r="G546" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H546" t="n">
+        <v>400</v>
+      </c>
+      <c r="I546" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>400</v>
+      </c>
+      <c r="G547" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H547" t="n">
+        <v>400</v>
+      </c>
+      <c r="I547" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>400</v>
+      </c>
+      <c r="G548" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H548" t="n">
+        <v>400</v>
+      </c>
+      <c r="I548" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>400</v>
+      </c>
+      <c r="G549" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H549" t="n">
+        <v>400</v>
+      </c>
+      <c r="I549" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>400</v>
+      </c>
+      <c r="G550" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H550" t="n">
+        <v>400</v>
+      </c>
+      <c r="I550" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>400</v>
+      </c>
+      <c r="G551" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H551" t="n">
+        <v>400</v>
+      </c>
+      <c r="I551" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>400</v>
+      </c>
+      <c r="G552" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H552" t="n">
+        <v>400</v>
+      </c>
+      <c r="I552" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>400</v>
+      </c>
+      <c r="G553" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H553" t="n">
+        <v>400</v>
+      </c>
+      <c r="I553" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>400</v>
+      </c>
+      <c r="G554" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H554" t="n">
+        <v>400</v>
+      </c>
+      <c r="I554" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>400</v>
+      </c>
+      <c r="G555" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H555" t="n">
+        <v>400</v>
+      </c>
+      <c r="I555" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>400</v>
+      </c>
+      <c r="G556" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H556" t="n">
+        <v>400</v>
+      </c>
+      <c r="I556" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>400</v>
+      </c>
+      <c r="G557" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H557" t="n">
+        <v>400</v>
+      </c>
+      <c r="I557" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>400</v>
+      </c>
+      <c r="G558" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H558" t="n">
+        <v>400</v>
+      </c>
+      <c r="I558" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-03-11 13:54:46</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>400</v>
+      </c>
+      <c r="G559" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>400</v>
+      </c>
+      <c r="I559" t="n">
         <v>14</v>
       </c>
     </row>
@@ -56594,7 +57665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I548"/>
+  <dimension ref="A1:I562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74929,7 +76000,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -75225,7 +76296,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -75262,7 +76333,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -75521,7 +76592,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -75558,7 +76629,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -75595,7 +76666,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -75743,7 +76814,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -75780,7 +76851,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -75817,7 +76888,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -75854,7 +76925,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -75965,7 +77036,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -76002,7 +77073,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -76039,7 +77110,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -76076,7 +77147,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -76113,7 +77184,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -76187,7 +77258,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -76224,7 +77295,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -76261,7 +77332,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -76298,7 +77369,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -76335,7 +77406,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -76372,7 +77443,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -76409,7 +77480,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -76446,7 +77517,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -76483,7 +77554,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -76520,7 +77591,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -76557,7 +77628,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -76594,7 +77665,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -76631,7 +77702,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -76668,7 +77739,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -76705,7 +77776,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -76742,7 +77813,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -76779,7 +77850,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -76816,7 +77887,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -76852,10 +77923,8 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>2025-03-11 05:30:43</t>
-        </is>
+      <c r="A548" s="2" t="n">
+        <v>45726.22953034722</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -76887,6 +77956,524 @@
         <v>400</v>
       </c>
       <c r="I548" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>400</v>
+      </c>
+      <c r="G549" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H549" t="n">
+        <v>400</v>
+      </c>
+      <c r="I549" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>400</v>
+      </c>
+      <c r="G550" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H550" t="n">
+        <v>400</v>
+      </c>
+      <c r="I550" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>400</v>
+      </c>
+      <c r="G551" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H551" t="n">
+        <v>400</v>
+      </c>
+      <c r="I551" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>400</v>
+      </c>
+      <c r="G552" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H552" t="n">
+        <v>400</v>
+      </c>
+      <c r="I552" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>400</v>
+      </c>
+      <c r="G553" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H553" t="n">
+        <v>400</v>
+      </c>
+      <c r="I553" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>400</v>
+      </c>
+      <c r="G554" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H554" t="n">
+        <v>400</v>
+      </c>
+      <c r="I554" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>400</v>
+      </c>
+      <c r="G555" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H555" t="n">
+        <v>400</v>
+      </c>
+      <c r="I555" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>400</v>
+      </c>
+      <c r="G556" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H556" t="n">
+        <v>400</v>
+      </c>
+      <c r="I556" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>400</v>
+      </c>
+      <c r="G557" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H557" t="n">
+        <v>400</v>
+      </c>
+      <c r="I557" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>400</v>
+      </c>
+      <c r="G558" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H558" t="n">
+        <v>400</v>
+      </c>
+      <c r="I558" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>400</v>
+      </c>
+      <c r="G559" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>400</v>
+      </c>
+      <c r="I559" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>400</v>
+      </c>
+      <c r="G560" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H560" t="n">
+        <v>400</v>
+      </c>
+      <c r="I560" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>400</v>
+      </c>
+      <c r="G561" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H561" t="n">
+        <v>400</v>
+      </c>
+      <c r="I561" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>400</v>
+      </c>
+      <c r="G562" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H562" t="n">
+        <v>400</v>
+      </c>
+      <c r="I562" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,38 +20543,632 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>400</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H544" t="n">
+        <v>400</v>
+      </c>
+      <c r="I544" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>400</v>
+      </c>
+      <c r="G545" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H545" t="n">
+        <v>400</v>
+      </c>
+      <c r="I545" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>400</v>
+      </c>
+      <c r="G546" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H546" t="n">
+        <v>400</v>
+      </c>
+      <c r="I546" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>400</v>
+      </c>
+      <c r="G547" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H547" t="n">
+        <v>400</v>
+      </c>
+      <c r="I547" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>400</v>
+      </c>
+      <c r="G548" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H548" t="n">
+        <v>400</v>
+      </c>
+      <c r="I548" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>400</v>
+      </c>
+      <c r="G549" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H549" t="n">
+        <v>400</v>
+      </c>
+      <c r="I549" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>400</v>
+      </c>
+      <c r="G550" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H550" t="n">
+        <v>400</v>
+      </c>
+      <c r="I550" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>400</v>
+      </c>
+      <c r="G551" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H551" t="n">
+        <v>400</v>
+      </c>
+      <c r="I551" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>400</v>
+      </c>
+      <c r="G552" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H552" t="n">
+        <v>400</v>
+      </c>
+      <c r="I552" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>400</v>
+      </c>
+      <c r="G553" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H553" t="n">
+        <v>400</v>
+      </c>
+      <c r="I553" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>400</v>
+      </c>
+      <c r="G554" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H554" t="n">
+        <v>400</v>
+      </c>
+      <c r="I554" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>400</v>
+      </c>
+      <c r="G555" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H555" t="n">
+        <v>400</v>
+      </c>
+      <c r="I555" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>400</v>
+      </c>
+      <c r="G556" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H556" t="n">
+        <v>400</v>
+      </c>
+      <c r="I556" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>400</v>
+      </c>
+      <c r="G557" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H557" t="n">
+        <v>400</v>
+      </c>
+      <c r="I557" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
         <v>45727.23172934028</v>
       </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E544" t="inlineStr">
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F544" t="n">
-        <v>400</v>
-      </c>
-      <c r="G544" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H544" t="n">
-        <v>400</v>
-      </c>
-      <c r="I544" t="n">
+      <c r="F558" t="n">
+        <v>400</v>
+      </c>
+      <c r="G558" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H558" t="n">
+        <v>400</v>
+      </c>
+      <c r="I558" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>400</v>
+      </c>
+      <c r="G559" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>400</v>
+      </c>
+      <c r="I559" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-03-11 17:33:41</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>400</v>
+      </c>
+      <c r="G560" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H560" t="n">
+        <v>400</v>
+      </c>
+      <c r="I560" t="n">
         <v>13</v>
       </c>
     </row>
@@ -20589,7 +21183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:I574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38813,7 +39407,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -39146,7 +39740,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -39183,7 +39777,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -39479,7 +40073,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -39516,7 +40110,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -39553,7 +40147,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -39738,7 +40332,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -39775,7 +40369,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -39812,7 +40406,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -39849,7 +40443,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -39997,7 +40591,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -40034,7 +40628,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -40071,7 +40665,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -40108,7 +40702,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -40145,7 +40739,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -40256,7 +40850,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -40293,7 +40887,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -40330,7 +40924,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -40367,7 +40961,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -40404,7 +40998,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -40441,7 +41035,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -40478,7 +41072,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -40515,7 +41109,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -40552,7 +41146,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -40589,7 +41183,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -40626,7 +41220,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -40663,7 +41257,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -40700,7 +41294,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -40737,7 +41331,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -40774,7 +41368,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -40811,7 +41405,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -40848,7 +41442,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -40885,7 +41479,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -40922,7 +41516,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -40959,7 +41553,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -40996,7 +41590,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -41033,7 +41627,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -41070,7 +41664,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -41107,7 +41701,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -41144,7 +41738,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57952</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -41181,7 +41775,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57952</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -41218,7 +41812,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57952</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -41254,41 +41848,596 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
+      <c r="A559" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>400</v>
+      </c>
+      <c r="G559" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>400</v>
+      </c>
+      <c r="I559" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>400</v>
+      </c>
+      <c r="G560" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H560" t="n">
+        <v>400</v>
+      </c>
+      <c r="I560" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>400</v>
+      </c>
+      <c r="G561" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H561" t="n">
+        <v>400</v>
+      </c>
+      <c r="I561" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>400</v>
+      </c>
+      <c r="G562" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H562" t="n">
+        <v>400</v>
+      </c>
+      <c r="I562" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>400</v>
+      </c>
+      <c r="G563" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H563" t="n">
+        <v>400</v>
+      </c>
+      <c r="I563" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>400</v>
+      </c>
+      <c r="G564" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H564" t="n">
+        <v>400</v>
+      </c>
+      <c r="I564" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>400</v>
+      </c>
+      <c r="G565" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H565" t="n">
+        <v>400</v>
+      </c>
+      <c r="I565" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>400</v>
+      </c>
+      <c r="G566" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H566" t="n">
+        <v>400</v>
+      </c>
+      <c r="I566" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>400</v>
+      </c>
+      <c r="G567" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H567" t="n">
+        <v>400</v>
+      </c>
+      <c r="I567" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>400</v>
+      </c>
+      <c r="G568" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H568" t="n">
+        <v>400</v>
+      </c>
+      <c r="I568" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>400</v>
+      </c>
+      <c r="G569" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H569" t="n">
+        <v>400</v>
+      </c>
+      <c r="I569" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>400</v>
+      </c>
+      <c r="G570" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H570" t="n">
+        <v>400</v>
+      </c>
+      <c r="I570" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>400</v>
+      </c>
+      <c r="G571" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H571" t="n">
+        <v>400</v>
+      </c>
+      <c r="I571" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>400</v>
+      </c>
+      <c r="G572" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H572" t="n">
+        <v>400</v>
+      </c>
+      <c r="I572" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>400</v>
+      </c>
+      <c r="G573" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H573" t="n">
+        <v>400</v>
+      </c>
+      <c r="I573" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
         <is>
           <t>2025-03-11 13:54:46</t>
         </is>
       </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F559" t="n">
-        <v>400</v>
-      </c>
-      <c r="G559" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H559" t="n">
-        <v>400</v>
-      </c>
-      <c r="I559" t="n">
+      <c r="F574" t="n">
+        <v>400</v>
+      </c>
+      <c r="G574" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H574" t="n">
+        <v>400</v>
+      </c>
+      <c r="I574" t="n">
         <v>14</v>
       </c>
     </row>
@@ -41303,7 +42452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I441"/>
+  <dimension ref="A1:I442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57651,6 +58800,45 @@
         <v>400</v>
       </c>
       <c r="I441" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-03-11 16:35:34</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F442" t="n">
+        <v>400</v>
+      </c>
+      <c r="G442" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H442" t="n">
+        <v>400</v>
+      </c>
+      <c r="I442" t="n">
         <v>255</v>
       </c>
     </row>
@@ -57665,7 +58853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76037,7 +77225,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -76370,7 +77558,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -76407,7 +77595,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -76703,7 +77891,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -76740,7 +77928,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -76777,7 +77965,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -76962,7 +78150,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -76999,7 +78187,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -77036,7 +78224,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -77073,7 +78261,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -77221,7 +78409,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -77258,7 +78446,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -77295,7 +78483,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -77332,7 +78520,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -77369,7 +78557,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -77480,7 +78668,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -77517,7 +78705,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -77554,7 +78742,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -77591,7 +78779,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -77628,7 +78816,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -77665,7 +78853,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -77702,7 +78890,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -77739,7 +78927,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -77776,7 +78964,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -77813,7 +79001,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -77850,7 +79038,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -77887,7 +79075,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -77924,7 +79112,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -77961,7 +79149,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -77998,7 +79186,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -78035,7 +79223,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -78072,7 +79260,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -78109,7 +79297,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -78146,7 +79334,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -78183,7 +79371,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -78220,7 +79408,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -78257,7 +79445,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -78294,7 +79482,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -78331,7 +79519,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -78368,7 +79556,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -78405,7 +79593,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -78442,38 +79630,632 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>400</v>
+      </c>
+      <c r="G562" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H562" t="n">
+        <v>400</v>
+      </c>
+      <c r="I562" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>400</v>
+      </c>
+      <c r="G563" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H563" t="n">
+        <v>400</v>
+      </c>
+      <c r="I563" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>400</v>
+      </c>
+      <c r="G564" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H564" t="n">
+        <v>400</v>
+      </c>
+      <c r="I564" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>400</v>
+      </c>
+      <c r="G565" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H565" t="n">
+        <v>400</v>
+      </c>
+      <c r="I565" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>400</v>
+      </c>
+      <c r="G566" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H566" t="n">
+        <v>400</v>
+      </c>
+      <c r="I566" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>400</v>
+      </c>
+      <c r="G567" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H567" t="n">
+        <v>400</v>
+      </c>
+      <c r="I567" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>400</v>
+      </c>
+      <c r="G568" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H568" t="n">
+        <v>400</v>
+      </c>
+      <c r="I568" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>400</v>
+      </c>
+      <c r="G569" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H569" t="n">
+        <v>400</v>
+      </c>
+      <c r="I569" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>400</v>
+      </c>
+      <c r="G570" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H570" t="n">
+        <v>400</v>
+      </c>
+      <c r="I570" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>400</v>
+      </c>
+      <c r="G571" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H571" t="n">
+        <v>400</v>
+      </c>
+      <c r="I571" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>400</v>
+      </c>
+      <c r="G572" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H572" t="n">
+        <v>400</v>
+      </c>
+      <c r="I572" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>400</v>
+      </c>
+      <c r="G573" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H573" t="n">
+        <v>400</v>
+      </c>
+      <c r="I573" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>400</v>
+      </c>
+      <c r="G574" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H574" t="n">
+        <v>400</v>
+      </c>
+      <c r="I574" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>400</v>
+      </c>
+      <c r="G575" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H575" t="n">
+        <v>400</v>
+      </c>
+      <c r="I575" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
         <v>45727.22981358796</v>
       </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E562" t="inlineStr">
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F562" t="n">
-        <v>400</v>
-      </c>
-      <c r="G562" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H562" t="n">
-        <v>400</v>
-      </c>
-      <c r="I562" t="n">
+      <c r="F576" t="n">
+        <v>400</v>
+      </c>
+      <c r="G576" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H576" t="n">
+        <v>400</v>
+      </c>
+      <c r="I576" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>400</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H577" t="n">
+        <v>400</v>
+      </c>
+      <c r="I577" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-03-11 17:30:55</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>400</v>
+      </c>
+      <c r="G578" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H578" t="n">
+        <v>400</v>
+      </c>
+      <c r="I578" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I560"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -21134,10 +21134,8 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>2025-03-11 17:33:41</t>
-        </is>
+      <c r="A560" s="2" t="n">
+        <v>45726.73156329861</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -21169,6 +21167,635 @@
         <v>400</v>
       </c>
       <c r="I560" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>400</v>
+      </c>
+      <c r="G561" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H561" t="n">
+        <v>400</v>
+      </c>
+      <c r="I561" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>400</v>
+      </c>
+      <c r="G562" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H562" t="n">
+        <v>400</v>
+      </c>
+      <c r="I562" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>400</v>
+      </c>
+      <c r="G563" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H563" t="n">
+        <v>400</v>
+      </c>
+      <c r="I563" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>400</v>
+      </c>
+      <c r="G564" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H564" t="n">
+        <v>400</v>
+      </c>
+      <c r="I564" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>400</v>
+      </c>
+      <c r="G565" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H565" t="n">
+        <v>400</v>
+      </c>
+      <c r="I565" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>400</v>
+      </c>
+      <c r="G566" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H566" t="n">
+        <v>400</v>
+      </c>
+      <c r="I566" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>400</v>
+      </c>
+      <c r="G567" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H567" t="n">
+        <v>400</v>
+      </c>
+      <c r="I567" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>400</v>
+      </c>
+      <c r="G568" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H568" t="n">
+        <v>400</v>
+      </c>
+      <c r="I568" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>400</v>
+      </c>
+      <c r="G569" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H569" t="n">
+        <v>400</v>
+      </c>
+      <c r="I569" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>400</v>
+      </c>
+      <c r="G570" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H570" t="n">
+        <v>400</v>
+      </c>
+      <c r="I570" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>400</v>
+      </c>
+      <c r="G571" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H571" t="n">
+        <v>400</v>
+      </c>
+      <c r="I571" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>400</v>
+      </c>
+      <c r="G572" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H572" t="n">
+        <v>400</v>
+      </c>
+      <c r="I572" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>400</v>
+      </c>
+      <c r="G573" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H573" t="n">
+        <v>400</v>
+      </c>
+      <c r="I573" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>400</v>
+      </c>
+      <c r="G574" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H574" t="n">
+        <v>400</v>
+      </c>
+      <c r="I574" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>400</v>
+      </c>
+      <c r="G575" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H575" t="n">
+        <v>400</v>
+      </c>
+      <c r="I575" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>400</v>
+      </c>
+      <c r="G576" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H576" t="n">
+        <v>400</v>
+      </c>
+      <c r="I576" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>400</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H577" t="n">
+        <v>400</v>
+      </c>
+      <c r="I577" t="n">
         <v>13</v>
       </c>
     </row>
@@ -21183,7 +21810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I574"/>
+  <dimension ref="A1:I592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39444,7 +40071,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -39814,7 +40441,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -39851,7 +40478,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -40184,7 +40811,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -40221,7 +40848,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -40258,7 +40885,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -40480,7 +41107,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -40517,7 +41144,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -40554,7 +41181,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -40591,7 +41218,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -40776,7 +41403,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -40813,7 +41440,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -40850,7 +41477,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -40887,7 +41514,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -40924,7 +41551,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -41072,7 +41699,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -41109,7 +41736,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -41146,7 +41773,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -41183,7 +41810,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -41220,7 +41847,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -41257,7 +41884,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -41294,7 +41921,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -41331,7 +41958,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -41368,7 +41995,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -41405,7 +42032,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -41442,7 +42069,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -41479,7 +42106,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -41516,7 +42143,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -41553,7 +42180,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -41590,7 +42217,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -41627,7 +42254,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -41664,7 +42291,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -41701,7 +42328,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -41738,7 +42365,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -41775,7 +42402,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -41812,7 +42439,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -41849,7 +42476,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -41886,7 +42513,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -41923,7 +42550,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -41960,7 +42587,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -41997,7 +42624,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -42034,7 +42661,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -42071,7 +42698,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -42108,7 +42735,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -42145,7 +42772,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -42182,7 +42809,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57952</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -42219,7 +42846,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57952</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -42256,7 +42883,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -42293,7 +42920,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -42330,7 +42957,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -42367,7 +42994,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -42403,10 +43030,8 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>2025-03-11 13:54:46</t>
-        </is>
+      <c r="A574" s="2" t="n">
+        <v>45726.57954204861</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -42438,6 +43063,674 @@
         <v>400</v>
       </c>
       <c r="I574" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>400</v>
+      </c>
+      <c r="G575" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H575" t="n">
+        <v>400</v>
+      </c>
+      <c r="I575" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>400</v>
+      </c>
+      <c r="G576" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H576" t="n">
+        <v>400</v>
+      </c>
+      <c r="I576" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>400</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H577" t="n">
+        <v>400</v>
+      </c>
+      <c r="I577" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>400</v>
+      </c>
+      <c r="G578" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H578" t="n">
+        <v>400</v>
+      </c>
+      <c r="I578" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>400</v>
+      </c>
+      <c r="G579" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H579" t="n">
+        <v>400</v>
+      </c>
+      <c r="I579" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>400</v>
+      </c>
+      <c r="G580" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H580" t="n">
+        <v>400</v>
+      </c>
+      <c r="I580" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>400</v>
+      </c>
+      <c r="G581" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H581" t="n">
+        <v>400</v>
+      </c>
+      <c r="I581" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>400</v>
+      </c>
+      <c r="G582" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H582" t="n">
+        <v>400</v>
+      </c>
+      <c r="I582" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>400</v>
+      </c>
+      <c r="G583" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H583" t="n">
+        <v>400</v>
+      </c>
+      <c r="I583" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>400</v>
+      </c>
+      <c r="G584" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H584" t="n">
+        <v>400</v>
+      </c>
+      <c r="I584" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>400</v>
+      </c>
+      <c r="G585" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H585" t="n">
+        <v>400</v>
+      </c>
+      <c r="I585" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>400</v>
+      </c>
+      <c r="G586" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H586" t="n">
+        <v>400</v>
+      </c>
+      <c r="I586" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>400</v>
+      </c>
+      <c r="G587" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H587" t="n">
+        <v>400</v>
+      </c>
+      <c r="I587" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>400</v>
+      </c>
+      <c r="G588" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H588" t="n">
+        <v>400</v>
+      </c>
+      <c r="I588" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>400</v>
+      </c>
+      <c r="G589" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H589" t="n">
+        <v>400</v>
+      </c>
+      <c r="I589" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>400</v>
+      </c>
+      <c r="G590" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H590" t="n">
+        <v>400</v>
+      </c>
+      <c r="I590" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>400</v>
+      </c>
+      <c r="G591" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H591" t="n">
+        <v>400</v>
+      </c>
+      <c r="I591" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-03-12 01:54:59</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>400</v>
+      </c>
+      <c r="G592" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H592" t="n">
+        <v>400</v>
+      </c>
+      <c r="I592" t="n">
         <v>14</v>
       </c>
     </row>
@@ -58853,7 +60146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I578"/>
+  <dimension ref="A1:I595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77262,7 +78555,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -77632,7 +78925,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -77669,7 +78962,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -78002,7 +79295,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -78039,7 +79332,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -78076,7 +79369,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -78298,7 +79591,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -78335,7 +79628,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -78372,7 +79665,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -78409,7 +79702,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -78594,7 +79887,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -78631,7 +79924,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -78668,7 +79961,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -78705,7 +79998,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -78742,7 +80035,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -78890,7 +80183,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -78927,7 +80220,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -78964,7 +80257,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -79001,7 +80294,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -79038,7 +80331,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -79075,7 +80368,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -79112,7 +80405,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -79149,7 +80442,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -79186,7 +80479,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -79223,7 +80516,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -79260,7 +80553,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -79297,7 +80590,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -79334,7 +80627,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -79371,7 +80664,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -79408,7 +80701,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -79445,7 +80738,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -79482,7 +80775,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -79519,7 +80812,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -79556,7 +80849,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -79593,7 +80886,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -79630,7 +80923,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -79667,7 +80960,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -79704,7 +80997,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -79741,7 +81034,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -79778,7 +81071,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -79815,7 +81108,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -79852,7 +81145,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -79889,7 +81182,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -79926,7 +81219,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -79963,7 +81256,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -80000,7 +81293,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -80037,7 +81330,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -80074,7 +81367,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -80111,7 +81404,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -80148,7 +81441,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -80185,7 +81478,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -80221,10 +81514,8 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>2025-03-11 17:30:55</t>
-        </is>
+      <c r="A578" s="2" t="n">
+        <v>45726.72964848379</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -80256,6 +81547,635 @@
         <v>400</v>
       </c>
       <c r="I578" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>400</v>
+      </c>
+      <c r="G579" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H579" t="n">
+        <v>400</v>
+      </c>
+      <c r="I579" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>400</v>
+      </c>
+      <c r="G580" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H580" t="n">
+        <v>400</v>
+      </c>
+      <c r="I580" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>400</v>
+      </c>
+      <c r="G581" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H581" t="n">
+        <v>400</v>
+      </c>
+      <c r="I581" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>400</v>
+      </c>
+      <c r="G582" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H582" t="n">
+        <v>400</v>
+      </c>
+      <c r="I582" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>400</v>
+      </c>
+      <c r="G583" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H583" t="n">
+        <v>400</v>
+      </c>
+      <c r="I583" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>400</v>
+      </c>
+      <c r="G584" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H584" t="n">
+        <v>400</v>
+      </c>
+      <c r="I584" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>400</v>
+      </c>
+      <c r="G585" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H585" t="n">
+        <v>400</v>
+      </c>
+      <c r="I585" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>400</v>
+      </c>
+      <c r="G586" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H586" t="n">
+        <v>400</v>
+      </c>
+      <c r="I586" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>400</v>
+      </c>
+      <c r="G587" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H587" t="n">
+        <v>400</v>
+      </c>
+      <c r="I587" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>400</v>
+      </c>
+      <c r="G588" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H588" t="n">
+        <v>400</v>
+      </c>
+      <c r="I588" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>400</v>
+      </c>
+      <c r="G589" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H589" t="n">
+        <v>400</v>
+      </c>
+      <c r="I589" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>400</v>
+      </c>
+      <c r="G590" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H590" t="n">
+        <v>400</v>
+      </c>
+      <c r="I590" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>400</v>
+      </c>
+      <c r="G591" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H591" t="n">
+        <v>400</v>
+      </c>
+      <c r="I591" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>400</v>
+      </c>
+      <c r="G592" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H592" t="n">
+        <v>400</v>
+      </c>
+      <c r="I592" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>400</v>
+      </c>
+      <c r="G593" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H593" t="n">
+        <v>400</v>
+      </c>
+      <c r="I593" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>400</v>
+      </c>
+      <c r="G594" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H594" t="n">
+        <v>400</v>
+      </c>
+      <c r="I594" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>400</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H595" t="n">
+        <v>400</v>
+      </c>
+      <c r="I595" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18212,7 +18212,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -21764,38 +21764,743 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>400</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H577" t="n">
+        <v>400</v>
+      </c>
+      <c r="I577" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>400</v>
+      </c>
+      <c r="G578" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H578" t="n">
+        <v>400</v>
+      </c>
+      <c r="I578" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>400</v>
+      </c>
+      <c r="G579" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H579" t="n">
+        <v>400</v>
+      </c>
+      <c r="I579" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>400</v>
+      </c>
+      <c r="G580" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H580" t="n">
+        <v>400</v>
+      </c>
+      <c r="I580" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>400</v>
+      </c>
+      <c r="G581" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H581" t="n">
+        <v>400</v>
+      </c>
+      <c r="I581" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>400</v>
+      </c>
+      <c r="G582" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H582" t="n">
+        <v>400</v>
+      </c>
+      <c r="I582" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>400</v>
+      </c>
+      <c r="G583" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H583" t="n">
+        <v>400</v>
+      </c>
+      <c r="I583" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>400</v>
+      </c>
+      <c r="G584" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H584" t="n">
+        <v>400</v>
+      </c>
+      <c r="I584" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>400</v>
+      </c>
+      <c r="G585" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H585" t="n">
+        <v>400</v>
+      </c>
+      <c r="I585" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>400</v>
+      </c>
+      <c r="G586" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H586" t="n">
+        <v>400</v>
+      </c>
+      <c r="I586" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>400</v>
+      </c>
+      <c r="G587" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H587" t="n">
+        <v>400</v>
+      </c>
+      <c r="I587" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>400</v>
+      </c>
+      <c r="G588" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H588" t="n">
+        <v>400</v>
+      </c>
+      <c r="I588" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>400</v>
+      </c>
+      <c r="G589" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H589" t="n">
+        <v>400</v>
+      </c>
+      <c r="I589" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>400</v>
+      </c>
+      <c r="G590" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H590" t="n">
+        <v>400</v>
+      </c>
+      <c r="I590" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>400</v>
+      </c>
+      <c r="G591" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H591" t="n">
+        <v>400</v>
+      </c>
+      <c r="I591" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>400</v>
+      </c>
+      <c r="G592" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H592" t="n">
+        <v>400</v>
+      </c>
+      <c r="I592" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>400</v>
+      </c>
+      <c r="G593" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H593" t="n">
+        <v>400</v>
+      </c>
+      <c r="I593" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
         <v>45727.73187150463</v>
       </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr">
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F577" t="n">
-        <v>400</v>
-      </c>
-      <c r="G577" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H577" t="n">
-        <v>400</v>
-      </c>
-      <c r="I577" t="n">
+      <c r="F594" t="n">
+        <v>400</v>
+      </c>
+      <c r="G594" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H594" t="n">
+        <v>400</v>
+      </c>
+      <c r="I594" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>400</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H595" t="n">
+        <v>400</v>
+      </c>
+      <c r="I595" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-03-12 05:33:53</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>400</v>
+      </c>
+      <c r="G596" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H596" t="n">
+        <v>400</v>
+      </c>
+      <c r="I596" t="n">
         <v>13</v>
       </c>
     </row>
@@ -21810,7 +22515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I592"/>
+  <dimension ref="A1:I610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40108,7 +40813,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -40515,7 +41220,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -40552,7 +41257,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -40922,7 +41627,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -40959,7 +41664,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -40996,7 +41701,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -41255,7 +41960,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -41292,7 +41997,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -41329,7 +42034,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -41366,7 +42071,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -41588,7 +42293,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -41625,7 +42330,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -41662,7 +42367,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -41699,7 +42404,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -41736,7 +42441,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -41921,7 +42626,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -41958,7 +42663,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -41995,7 +42700,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -42032,7 +42737,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -42069,7 +42774,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -42106,7 +42811,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -42180,7 +42885,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -42217,7 +42922,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -42254,7 +42959,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -42291,7 +42996,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -42328,7 +43033,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -42365,7 +43070,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -42402,7 +43107,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -42439,7 +43144,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -42476,7 +43181,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -42513,7 +43218,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -42550,7 +43255,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -42587,7 +43292,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -42624,7 +43329,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -42661,7 +43366,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -42698,7 +43403,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -42735,7 +43440,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -42772,7 +43477,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -42809,7 +43514,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -42846,7 +43551,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -42883,7 +43588,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -42920,7 +43625,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -42957,7 +43662,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -42994,7 +43699,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -43031,7 +43736,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -43068,7 +43773,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -43105,7 +43810,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -43142,7 +43847,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -43179,7 +43884,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -43216,7 +43921,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -43253,7 +43958,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -43290,7 +43995,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -43327,7 +44032,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -43364,7 +44069,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -43401,7 +44106,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -43438,7 +44143,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -43475,7 +44180,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -43512,7 +44217,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -43549,7 +44254,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -43586,7 +44291,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -43623,7 +44328,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -43660,7 +44365,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -43696,41 +44401,707 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr">
+      <c r="A592" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>400</v>
+      </c>
+      <c r="G592" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H592" t="n">
+        <v>400</v>
+      </c>
+      <c r="I592" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>400</v>
+      </c>
+      <c r="G593" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H593" t="n">
+        <v>400</v>
+      </c>
+      <c r="I593" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>400</v>
+      </c>
+      <c r="G594" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H594" t="n">
+        <v>400</v>
+      </c>
+      <c r="I594" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>400</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H595" t="n">
+        <v>400</v>
+      </c>
+      <c r="I595" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>400</v>
+      </c>
+      <c r="G596" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H596" t="n">
+        <v>400</v>
+      </c>
+      <c r="I596" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>400</v>
+      </c>
+      <c r="G597" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H597" t="n">
+        <v>400</v>
+      </c>
+      <c r="I597" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>400</v>
+      </c>
+      <c r="G598" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H598" t="n">
+        <v>400</v>
+      </c>
+      <c r="I598" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>400</v>
+      </c>
+      <c r="G599" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H599" t="n">
+        <v>400</v>
+      </c>
+      <c r="I599" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>400</v>
+      </c>
+      <c r="G600" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H600" t="n">
+        <v>400</v>
+      </c>
+      <c r="I600" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>400</v>
+      </c>
+      <c r="G601" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H601" t="n">
+        <v>400</v>
+      </c>
+      <c r="I601" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>400</v>
+      </c>
+      <c r="G602" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H602" t="n">
+        <v>400</v>
+      </c>
+      <c r="I602" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>400</v>
+      </c>
+      <c r="G603" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H603" t="n">
+        <v>400</v>
+      </c>
+      <c r="I603" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>400</v>
+      </c>
+      <c r="G604" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H604" t="n">
+        <v>400</v>
+      </c>
+      <c r="I604" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>400</v>
+      </c>
+      <c r="G605" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H605" t="n">
+        <v>400</v>
+      </c>
+      <c r="I605" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>400</v>
+      </c>
+      <c r="G606" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H606" t="n">
+        <v>400</v>
+      </c>
+      <c r="I606" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>400</v>
+      </c>
+      <c r="G607" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H607" t="n">
+        <v>400</v>
+      </c>
+      <c r="I607" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>400</v>
+      </c>
+      <c r="G608" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H608" t="n">
+        <v>400</v>
+      </c>
+      <c r="I608" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>400</v>
+      </c>
+      <c r="G609" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H609" t="n">
+        <v>400</v>
+      </c>
+      <c r="I609" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
         <is>
           <t>2025-03-12 01:54:59</t>
         </is>
       </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr">
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr">
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F592" t="n">
-        <v>400</v>
-      </c>
-      <c r="G592" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H592" t="n">
-        <v>400</v>
-      </c>
-      <c r="I592" t="n">
+      <c r="F610" t="n">
+        <v>400</v>
+      </c>
+      <c r="G610" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H610" t="n">
+        <v>400</v>
+      </c>
+      <c r="I610" t="n">
         <v>14</v>
       </c>
     </row>
@@ -43745,7 +45116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I442"/>
+  <dimension ref="A1:I443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60132,6 +61503,45 @@
         <v>400</v>
       </c>
       <c r="I442" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-03-12 04:35:34</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F443" t="n">
+        <v>400</v>
+      </c>
+      <c r="G443" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H443" t="n">
+        <v>400</v>
+      </c>
+      <c r="I443" t="n">
         <v>255</v>
       </c>
     </row>
@@ -60146,7 +61556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I595"/>
+  <dimension ref="A1:I614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78592,7 +80002,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -78999,7 +80409,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -79036,7 +80446,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -79406,7 +80816,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -79443,7 +80853,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -79480,7 +80890,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -79739,7 +81149,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -79776,7 +81186,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -79813,7 +81223,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -79850,7 +81260,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -80072,7 +81482,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -80109,7 +81519,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -80146,7 +81556,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -80183,7 +81593,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -80220,7 +81630,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -80405,7 +81815,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -80442,7 +81852,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -80479,7 +81889,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -80516,7 +81926,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -80553,7 +81963,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -80590,7 +82000,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -80664,7 +82074,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -80701,7 +82111,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -80738,7 +82148,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -80775,7 +82185,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -80812,7 +82222,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -80849,7 +82259,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -80886,7 +82296,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -80923,7 +82333,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -80960,7 +82370,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -80997,7 +82407,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -81034,7 +82444,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -81071,7 +82481,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -81108,7 +82518,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -81145,7 +82555,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -81182,7 +82592,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -81219,7 +82629,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -81256,7 +82666,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -81293,7 +82703,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -81330,7 +82740,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -81367,7 +82777,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -81404,7 +82814,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -81441,7 +82851,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -81478,7 +82888,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -81515,7 +82925,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -81552,7 +82962,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -81589,7 +82999,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -81626,7 +83036,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -81663,7 +83073,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -81700,7 +83110,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -81737,7 +83147,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -81774,7 +83184,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -81811,7 +83221,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -81848,7 +83258,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -81885,7 +83295,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -81922,7 +83332,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -81959,7 +83369,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -81996,7 +83406,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -82033,7 +83443,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -82070,7 +83480,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -82107,7 +83517,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -82144,38 +83554,743 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>400</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H595" t="n">
+        <v>400</v>
+      </c>
+      <c r="I595" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>400</v>
+      </c>
+      <c r="G596" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H596" t="n">
+        <v>400</v>
+      </c>
+      <c r="I596" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>400</v>
+      </c>
+      <c r="G597" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H597" t="n">
+        <v>400</v>
+      </c>
+      <c r="I597" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>400</v>
+      </c>
+      <c r="G598" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H598" t="n">
+        <v>400</v>
+      </c>
+      <c r="I598" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>400</v>
+      </c>
+      <c r="G599" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H599" t="n">
+        <v>400</v>
+      </c>
+      <c r="I599" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>400</v>
+      </c>
+      <c r="G600" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H600" t="n">
+        <v>400</v>
+      </c>
+      <c r="I600" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>400</v>
+      </c>
+      <c r="G601" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H601" t="n">
+        <v>400</v>
+      </c>
+      <c r="I601" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>400</v>
+      </c>
+      <c r="G602" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H602" t="n">
+        <v>400</v>
+      </c>
+      <c r="I602" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>400</v>
+      </c>
+      <c r="G603" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H603" t="n">
+        <v>400</v>
+      </c>
+      <c r="I603" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>400</v>
+      </c>
+      <c r="G604" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H604" t="n">
+        <v>400</v>
+      </c>
+      <c r="I604" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>400</v>
+      </c>
+      <c r="G605" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H605" t="n">
+        <v>400</v>
+      </c>
+      <c r="I605" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>400</v>
+      </c>
+      <c r="G606" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H606" t="n">
+        <v>400</v>
+      </c>
+      <c r="I606" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>400</v>
+      </c>
+      <c r="G607" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H607" t="n">
+        <v>400</v>
+      </c>
+      <c r="I607" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>400</v>
+      </c>
+      <c r="G608" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H608" t="n">
+        <v>400</v>
+      </c>
+      <c r="I608" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>400</v>
+      </c>
+      <c r="G609" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H609" t="n">
+        <v>400</v>
+      </c>
+      <c r="I609" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>400</v>
+      </c>
+      <c r="G610" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H610" t="n">
+        <v>400</v>
+      </c>
+      <c r="I610" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>400</v>
+      </c>
+      <c r="G611" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H611" t="n">
+        <v>400</v>
+      </c>
+      <c r="I611" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
         <v>45727.72995586805</v>
       </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr">
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr">
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F595" t="n">
-        <v>400</v>
-      </c>
-      <c r="G595" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H595" t="n">
-        <v>400</v>
-      </c>
-      <c r="I595" t="n">
+      <c r="F612" t="n">
+        <v>400</v>
+      </c>
+      <c r="G612" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H612" t="n">
+        <v>400</v>
+      </c>
+      <c r="I612" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>400</v>
+      </c>
+      <c r="G613" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H613" t="n">
+        <v>400</v>
+      </c>
+      <c r="I613" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-03-12 05:31:08</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>400</v>
+      </c>
+      <c r="G614" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H614" t="n">
+        <v>400</v>
+      </c>
+      <c r="I614" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I596"/>
+  <dimension ref="A1:I616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -22466,10 +22466,8 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>2025-03-12 05:33:53</t>
-        </is>
+      <c r="A596" s="2" t="n">
+        <v>45727.23170618056</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -22501,6 +22499,746 @@
         <v>400</v>
       </c>
       <c r="I596" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>400</v>
+      </c>
+      <c r="G597" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H597" t="n">
+        <v>400</v>
+      </c>
+      <c r="I597" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>400</v>
+      </c>
+      <c r="G598" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H598" t="n">
+        <v>400</v>
+      </c>
+      <c r="I598" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>400</v>
+      </c>
+      <c r="G599" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H599" t="n">
+        <v>400</v>
+      </c>
+      <c r="I599" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>400</v>
+      </c>
+      <c r="G600" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H600" t="n">
+        <v>400</v>
+      </c>
+      <c r="I600" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>400</v>
+      </c>
+      <c r="G601" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H601" t="n">
+        <v>400</v>
+      </c>
+      <c r="I601" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>400</v>
+      </c>
+      <c r="G602" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H602" t="n">
+        <v>400</v>
+      </c>
+      <c r="I602" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>400</v>
+      </c>
+      <c r="G603" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H603" t="n">
+        <v>400</v>
+      </c>
+      <c r="I603" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>400</v>
+      </c>
+      <c r="G604" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H604" t="n">
+        <v>400</v>
+      </c>
+      <c r="I604" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>400</v>
+      </c>
+      <c r="G605" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H605" t="n">
+        <v>400</v>
+      </c>
+      <c r="I605" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>400</v>
+      </c>
+      <c r="G606" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H606" t="n">
+        <v>400</v>
+      </c>
+      <c r="I606" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>400</v>
+      </c>
+      <c r="G607" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H607" t="n">
+        <v>400</v>
+      </c>
+      <c r="I607" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>400</v>
+      </c>
+      <c r="G608" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H608" t="n">
+        <v>400</v>
+      </c>
+      <c r="I608" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>400</v>
+      </c>
+      <c r="G609" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H609" t="n">
+        <v>400</v>
+      </c>
+      <c r="I609" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>400</v>
+      </c>
+      <c r="G610" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H610" t="n">
+        <v>400</v>
+      </c>
+      <c r="I610" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>400</v>
+      </c>
+      <c r="G611" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H611" t="n">
+        <v>400</v>
+      </c>
+      <c r="I611" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F612" t="n">
+        <v>400</v>
+      </c>
+      <c r="G612" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H612" t="n">
+        <v>400</v>
+      </c>
+      <c r="I612" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>400</v>
+      </c>
+      <c r="G613" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H613" t="n">
+        <v>400</v>
+      </c>
+      <c r="I613" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>400</v>
+      </c>
+      <c r="G614" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H614" t="n">
+        <v>400</v>
+      </c>
+      <c r="I614" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>400</v>
+      </c>
+      <c r="G615" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H615" t="n">
+        <v>400</v>
+      </c>
+      <c r="I615" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>400</v>
+      </c>
+      <c r="G616" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H616" t="n">
+        <v>400</v>
+      </c>
+      <c r="I616" t="n">
         <v>13</v>
       </c>
     </row>
@@ -22515,7 +23253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I610"/>
+  <dimension ref="A1:I631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40850,7 +41588,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -41294,7 +42032,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -41331,7 +42069,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -41738,7 +42476,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -41775,7 +42513,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -41812,7 +42550,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -42108,7 +42846,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -42145,7 +42883,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -42182,7 +42920,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -42219,7 +42957,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -42478,7 +43216,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -42515,7 +43253,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -42552,7 +43290,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -42589,7 +43327,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -42626,7 +43364,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -42848,7 +43586,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -42885,7 +43623,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -42922,7 +43660,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -42959,7 +43697,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -42996,7 +43734,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -43033,7 +43771,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -43144,7 +43882,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -43181,7 +43919,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -43218,7 +43956,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -43255,7 +43993,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -43292,7 +44030,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -43329,7 +44067,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -43366,7 +44104,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -43440,7 +44178,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -43477,7 +44215,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -43514,7 +44252,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -43551,7 +44289,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -43588,7 +44326,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -43625,7 +44363,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -43662,7 +44400,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -43699,7 +44437,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -43736,7 +44474,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -43773,7 +44511,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -43810,7 +44548,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -43847,7 +44585,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -43884,7 +44622,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -43921,7 +44659,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -43958,7 +44696,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -43995,7 +44733,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -44032,7 +44770,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -44069,7 +44807,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -44106,7 +44844,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -44143,7 +44881,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -44180,7 +44918,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -44217,7 +44955,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -44254,7 +44992,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -44291,7 +45029,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -44328,7 +45066,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -44365,7 +45103,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -44402,7 +45140,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -44439,7 +45177,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -44476,7 +45214,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -44513,7 +45251,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -44550,7 +45288,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -44587,7 +45325,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -44624,7 +45362,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -44661,7 +45399,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -44698,7 +45436,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -44735,7 +45473,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -44772,7 +45510,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -44809,7 +45547,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -44846,7 +45584,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -44883,7 +45621,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -44920,7 +45658,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -44957,7 +45695,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -44994,7 +45732,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -45031,7 +45769,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -45067,10 +45805,8 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>2025-03-12 01:54:59</t>
-        </is>
+      <c r="A610" s="2" t="n">
+        <v>45727.07968420139</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -45103,6 +45839,785 @@
       </c>
       <c r="I610" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>400</v>
+      </c>
+      <c r="G611" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H611" t="n">
+        <v>400</v>
+      </c>
+      <c r="I611" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F612" t="n">
+        <v>400</v>
+      </c>
+      <c r="G612" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H612" t="n">
+        <v>400</v>
+      </c>
+      <c r="I612" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>400</v>
+      </c>
+      <c r="G613" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H613" t="n">
+        <v>400</v>
+      </c>
+      <c r="I613" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>400</v>
+      </c>
+      <c r="G614" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H614" t="n">
+        <v>400</v>
+      </c>
+      <c r="I614" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>400</v>
+      </c>
+      <c r="G615" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H615" t="n">
+        <v>400</v>
+      </c>
+      <c r="I615" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>400</v>
+      </c>
+      <c r="G616" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H616" t="n">
+        <v>400</v>
+      </c>
+      <c r="I616" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>400</v>
+      </c>
+      <c r="G617" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H617" t="n">
+        <v>400</v>
+      </c>
+      <c r="I617" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>400</v>
+      </c>
+      <c r="G618" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H618" t="n">
+        <v>400</v>
+      </c>
+      <c r="I618" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>400</v>
+      </c>
+      <c r="G619" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H619" t="n">
+        <v>400</v>
+      </c>
+      <c r="I619" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>400</v>
+      </c>
+      <c r="G620" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H620" t="n">
+        <v>400</v>
+      </c>
+      <c r="I620" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>400</v>
+      </c>
+      <c r="G621" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H621" t="n">
+        <v>400</v>
+      </c>
+      <c r="I621" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>400</v>
+      </c>
+      <c r="G622" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H622" t="n">
+        <v>400</v>
+      </c>
+      <c r="I622" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>400</v>
+      </c>
+      <c r="G623" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H623" t="n">
+        <v>400</v>
+      </c>
+      <c r="I623" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>400</v>
+      </c>
+      <c r="G624" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H624" t="n">
+        <v>400</v>
+      </c>
+      <c r="I624" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>400</v>
+      </c>
+      <c r="G625" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H625" t="n">
+        <v>400</v>
+      </c>
+      <c r="I625" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>400</v>
+      </c>
+      <c r="G626" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H626" t="n">
+        <v>400</v>
+      </c>
+      <c r="I626" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>400</v>
+      </c>
+      <c r="G627" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H627" t="n">
+        <v>400</v>
+      </c>
+      <c r="I627" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>400</v>
+      </c>
+      <c r="G628" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H628" t="n">
+        <v>390</v>
+      </c>
+      <c r="I628" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>400</v>
+      </c>
+      <c r="G629" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H629" t="n">
+        <v>390</v>
+      </c>
+      <c r="I629" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>400</v>
+      </c>
+      <c r="G630" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H630" t="n">
+        <v>390</v>
+      </c>
+      <c r="I630" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-03-12 13:55:11</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>400</v>
+      </c>
+      <c r="G631" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H631" t="n">
+        <v>390</v>
+      </c>
+      <c r="I631" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -61556,7 +63071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I614"/>
+  <dimension ref="A1:I637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80039,7 +81554,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -80483,7 +81998,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -80520,7 +82035,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -80927,7 +82442,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -80964,7 +82479,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -81001,7 +82516,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -81297,7 +82812,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -81334,7 +82849,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -81371,7 +82886,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -81408,7 +82923,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -81667,7 +83182,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -81704,7 +83219,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -81741,7 +83256,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -81778,7 +83293,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -81815,7 +83330,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -82037,7 +83552,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -82074,7 +83589,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -82111,7 +83626,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -82148,7 +83663,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -82185,7 +83700,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -82222,7 +83737,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -82333,7 +83848,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -82370,7 +83885,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -82407,7 +83922,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -82444,7 +83959,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -82481,7 +83996,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -82518,7 +84033,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -82555,7 +84070,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -82629,7 +84144,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -82666,7 +84181,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -82703,7 +84218,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -82740,7 +84255,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -82777,7 +84292,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -82814,7 +84329,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -82851,7 +84366,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -82888,7 +84403,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -82925,7 +84440,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -82962,7 +84477,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -82999,7 +84514,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -83036,7 +84551,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -83073,7 +84588,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -83110,7 +84625,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -83147,7 +84662,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -83184,7 +84699,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -83221,7 +84736,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -83258,7 +84773,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -83295,7 +84810,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -83332,7 +84847,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -83369,7 +84884,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -83406,7 +84921,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -83443,7 +84958,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -83480,7 +84995,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -83517,7 +85032,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -83554,7 +85069,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -83591,7 +85106,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -83628,7 +85143,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -83665,7 +85180,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -83702,7 +85217,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -83739,7 +85254,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -83776,7 +85291,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -83813,7 +85328,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -83850,7 +85365,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -83887,7 +85402,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -83924,7 +85439,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -83961,7 +85476,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -83998,7 +85513,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -84035,7 +85550,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -84072,7 +85587,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -84109,7 +85624,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -84146,7 +85661,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -84183,7 +85698,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -84220,7 +85735,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -84256,10 +85771,8 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>2025-03-12 05:31:08</t>
-        </is>
+      <c r="A614" s="2" t="n">
+        <v>45727.22979072916</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -84291,6 +85804,857 @@
         <v>400</v>
       </c>
       <c r="I614" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>400</v>
+      </c>
+      <c r="G615" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H615" t="n">
+        <v>400</v>
+      </c>
+      <c r="I615" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>400</v>
+      </c>
+      <c r="G616" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H616" t="n">
+        <v>400</v>
+      </c>
+      <c r="I616" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>400</v>
+      </c>
+      <c r="G617" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H617" t="n">
+        <v>400</v>
+      </c>
+      <c r="I617" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>400</v>
+      </c>
+      <c r="G618" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H618" t="n">
+        <v>400</v>
+      </c>
+      <c r="I618" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>400</v>
+      </c>
+      <c r="G619" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H619" t="n">
+        <v>400</v>
+      </c>
+      <c r="I619" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>400</v>
+      </c>
+      <c r="G620" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H620" t="n">
+        <v>400</v>
+      </c>
+      <c r="I620" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>400</v>
+      </c>
+      <c r="G621" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H621" t="n">
+        <v>400</v>
+      </c>
+      <c r="I621" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>400</v>
+      </c>
+      <c r="G622" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H622" t="n">
+        <v>400</v>
+      </c>
+      <c r="I622" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>400</v>
+      </c>
+      <c r="G623" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H623" t="n">
+        <v>400</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>400</v>
+      </c>
+      <c r="G624" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H624" t="n">
+        <v>400</v>
+      </c>
+      <c r="I624" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>400</v>
+      </c>
+      <c r="G625" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H625" t="n">
+        <v>400</v>
+      </c>
+      <c r="I625" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>400</v>
+      </c>
+      <c r="G626" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H626" t="n">
+        <v>400</v>
+      </c>
+      <c r="I626" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>400</v>
+      </c>
+      <c r="G627" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H627" t="n">
+        <v>400</v>
+      </c>
+      <c r="I627" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>400</v>
+      </c>
+      <c r="G628" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H628" t="n">
+        <v>400</v>
+      </c>
+      <c r="I628" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>400</v>
+      </c>
+      <c r="G629" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H629" t="n">
+        <v>400</v>
+      </c>
+      <c r="I629" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>400</v>
+      </c>
+      <c r="G630" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H630" t="n">
+        <v>400</v>
+      </c>
+      <c r="I630" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>400</v>
+      </c>
+      <c r="G631" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H631" t="n">
+        <v>400</v>
+      </c>
+      <c r="I631" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>400</v>
+      </c>
+      <c r="G632" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H632" t="n">
+        <v>400</v>
+      </c>
+      <c r="I632" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>400</v>
+      </c>
+      <c r="G633" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H633" t="n">
+        <v>400</v>
+      </c>
+      <c r="I633" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>400</v>
+      </c>
+      <c r="G634" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H634" t="n">
+        <v>400</v>
+      </c>
+      <c r="I634" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>400</v>
+      </c>
+      <c r="G635" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H635" t="n">
+        <v>400</v>
+      </c>
+      <c r="I635" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>400</v>
+      </c>
+      <c r="G636" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H636" t="n">
+        <v>400</v>
+      </c>
+      <c r="I636" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>400</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>400</v>
+      </c>
+      <c r="I637" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I616"/>
+  <dimension ref="A1:I638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -23207,38 +23207,854 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>400</v>
+      </c>
+      <c r="G616" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H616" t="n">
+        <v>400</v>
+      </c>
+      <c r="I616" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>400</v>
+      </c>
+      <c r="G617" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H617" t="n">
+        <v>400</v>
+      </c>
+      <c r="I617" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>400</v>
+      </c>
+      <c r="G618" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H618" t="n">
+        <v>400</v>
+      </c>
+      <c r="I618" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>400</v>
+      </c>
+      <c r="G619" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H619" t="n">
+        <v>400</v>
+      </c>
+      <c r="I619" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>400</v>
+      </c>
+      <c r="G620" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H620" t="n">
+        <v>400</v>
+      </c>
+      <c r="I620" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>400</v>
+      </c>
+      <c r="G621" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H621" t="n">
+        <v>400</v>
+      </c>
+      <c r="I621" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>400</v>
+      </c>
+      <c r="G622" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H622" t="n">
+        <v>400</v>
+      </c>
+      <c r="I622" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>400</v>
+      </c>
+      <c r="G623" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H623" t="n">
+        <v>400</v>
+      </c>
+      <c r="I623" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>400</v>
+      </c>
+      <c r="G624" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H624" t="n">
+        <v>400</v>
+      </c>
+      <c r="I624" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>400</v>
+      </c>
+      <c r="G625" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H625" t="n">
+        <v>400</v>
+      </c>
+      <c r="I625" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>400</v>
+      </c>
+      <c r="G626" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H626" t="n">
+        <v>400</v>
+      </c>
+      <c r="I626" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>400</v>
+      </c>
+      <c r="G627" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H627" t="n">
+        <v>400</v>
+      </c>
+      <c r="I627" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>400</v>
+      </c>
+      <c r="G628" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H628" t="n">
+        <v>400</v>
+      </c>
+      <c r="I628" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>400</v>
+      </c>
+      <c r="G629" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H629" t="n">
+        <v>400</v>
+      </c>
+      <c r="I629" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>400</v>
+      </c>
+      <c r="G630" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H630" t="n">
+        <v>400</v>
+      </c>
+      <c r="I630" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>400</v>
+      </c>
+      <c r="G631" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H631" t="n">
+        <v>400</v>
+      </c>
+      <c r="I631" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>400</v>
+      </c>
+      <c r="G632" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H632" t="n">
+        <v>400</v>
+      </c>
+      <c r="I632" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>400</v>
+      </c>
+      <c r="G633" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H633" t="n">
+        <v>400</v>
+      </c>
+      <c r="I633" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>400</v>
+      </c>
+      <c r="G634" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H634" t="n">
+        <v>400</v>
+      </c>
+      <c r="I634" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>400</v>
+      </c>
+      <c r="G635" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H635" t="n">
+        <v>400</v>
+      </c>
+      <c r="I635" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
         <v>45728.23201340278</v>
       </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr">
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr">
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F616" t="n">
-        <v>400</v>
-      </c>
-      <c r="G616" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H616" t="n">
-        <v>400</v>
-      </c>
-      <c r="I616" t="n">
+      <c r="F636" t="n">
+        <v>400</v>
+      </c>
+      <c r="G636" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H636" t="n">
+        <v>400</v>
+      </c>
+      <c r="I636" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>400</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>400</v>
+      </c>
+      <c r="I637" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025-03-12 17:34:05</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>400</v>
+      </c>
+      <c r="G638" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H638" t="n">
+        <v>400</v>
+      </c>
+      <c r="I638" t="n">
         <v>13</v>
       </c>
     </row>
@@ -23253,7 +24069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I631"/>
+  <dimension ref="A1:I652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41625,7 +42441,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -42106,7 +42922,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -42143,7 +42959,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -42587,7 +43403,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -42624,7 +43440,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -42661,7 +43477,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -42994,7 +43810,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -43031,7 +43847,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -43068,7 +43884,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -43105,7 +43921,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -43401,7 +44217,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -43438,7 +44254,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -43475,7 +44291,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -43512,7 +44328,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -43549,7 +44365,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -43808,7 +44624,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -43845,7 +44661,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -43882,7 +44698,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -43919,7 +44735,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -43956,7 +44772,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -43993,7 +44809,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -44141,7 +44957,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -44178,7 +44994,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -44215,7 +45031,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -44252,7 +45068,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -44289,7 +45105,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -44326,7 +45142,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -44363,7 +45179,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -44474,7 +45290,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -44511,7 +45327,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -44548,7 +45364,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -44585,7 +45401,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -44622,7 +45438,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -44659,7 +45475,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -44696,7 +45512,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -44733,7 +45549,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -44807,7 +45623,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -44844,7 +45660,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -44881,7 +45697,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -44918,7 +45734,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -44955,7 +45771,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -44992,7 +45808,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -45029,7 +45845,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -45066,7 +45882,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -45103,7 +45919,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -45140,7 +45956,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -45177,7 +45993,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -45214,7 +46030,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -45251,7 +46067,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -45288,7 +46104,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -45325,7 +46141,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -45362,7 +46178,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -45399,7 +46215,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -45436,7 +46252,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -45473,7 +46289,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -45510,7 +46326,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -45547,7 +46363,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -45584,7 +46400,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -45621,7 +46437,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -45658,7 +46474,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -45695,7 +46511,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -45732,7 +46548,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -45769,7 +46585,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -45806,7 +46622,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -45843,7 +46659,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -45880,7 +46696,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -45917,7 +46733,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -45954,7 +46770,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -45991,7 +46807,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -46028,7 +46844,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -46065,7 +46881,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -46102,7 +46918,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -46139,7 +46955,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -46176,7 +46992,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -46213,7 +47029,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -46250,7 +47066,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -46287,7 +47103,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -46324,7 +47140,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -46361,7 +47177,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -46398,7 +47214,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -46435,7 +47251,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -46472,7 +47288,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -46486,12 +47302,12 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F628" t="n">
@@ -46501,15 +47317,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H628" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I628" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -46523,12 +47339,12 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F629" t="n">
@@ -46538,85 +47354,862 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H629" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I629" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>400</v>
+      </c>
+      <c r="G630" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H630" t="n">
+        <v>400</v>
+      </c>
+      <c r="I630" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>400</v>
+      </c>
+      <c r="G631" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H631" t="n">
+        <v>400</v>
+      </c>
+      <c r="I631" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>400</v>
+      </c>
+      <c r="G632" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H632" t="n">
+        <v>400</v>
+      </c>
+      <c r="I632" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>400</v>
+      </c>
+      <c r="G633" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H633" t="n">
+        <v>400</v>
+      </c>
+      <c r="I633" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>400</v>
+      </c>
+      <c r="G634" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H634" t="n">
+        <v>400</v>
+      </c>
+      <c r="I634" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>400</v>
+      </c>
+      <c r="G635" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H635" t="n">
+        <v>400</v>
+      </c>
+      <c r="I635" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>400</v>
+      </c>
+      <c r="G636" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H636" t="n">
+        <v>400</v>
+      </c>
+      <c r="I636" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>400</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>400</v>
+      </c>
+      <c r="I637" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>400</v>
+      </c>
+      <c r="G638" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H638" t="n">
+        <v>400</v>
+      </c>
+      <c r="I638" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>400</v>
+      </c>
+      <c r="G639" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H639" t="n">
+        <v>400</v>
+      </c>
+      <c r="I639" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>400</v>
+      </c>
+      <c r="G640" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H640" t="n">
+        <v>400</v>
+      </c>
+      <c r="I640" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>400</v>
+      </c>
+      <c r="G641" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H641" t="n">
+        <v>400</v>
+      </c>
+      <c r="I641" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>400</v>
+      </c>
+      <c r="G642" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H642" t="n">
+        <v>400</v>
+      </c>
+      <c r="I642" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>400</v>
+      </c>
+      <c r="G643" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H643" t="n">
+        <v>400</v>
+      </c>
+      <c r="I643" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>400</v>
+      </c>
+      <c r="G644" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H644" t="n">
+        <v>400</v>
+      </c>
+      <c r="I644" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>400</v>
+      </c>
+      <c r="G645" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H645" t="n">
+        <v>400</v>
+      </c>
+      <c r="I645" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>400</v>
+      </c>
+      <c r="G646" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H646" t="n">
+        <v>390</v>
+      </c>
+      <c r="I646" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>400</v>
+      </c>
+      <c r="G647" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H647" t="n">
+        <v>390</v>
+      </c>
+      <c r="I647" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>400</v>
+      </c>
+      <c r="G648" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H648" t="n">
+        <v>390</v>
+      </c>
+      <c r="I648" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>400</v>
+      </c>
+      <c r="G649" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H649" t="n">
+        <v>390</v>
+      </c>
+      <c r="I649" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
         <v>45728.07999162037</v>
       </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr">
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D630" t="inlineStr">
+      <c r="D650" t="inlineStr">
         <is>
           <t>0x01,0x86,</t>
         </is>
       </c>
-      <c r="E630" t="inlineStr">
+      <c r="E650" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="F630" t="n">
-        <v>400</v>
-      </c>
-      <c r="G630" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H630" t="n">
+      <c r="F650" t="n">
+        <v>400</v>
+      </c>
+      <c r="G650" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H650" t="n">
         <v>390</v>
       </c>
-      <c r="I630" t="n">
+      <c r="I650" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>400</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H651" t="n">
+        <v>390</v>
+      </c>
+      <c r="I651" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
         <is>
           <t>2025-03-12 13:55:11</t>
         </is>
       </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr">
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D631" t="inlineStr">
+      <c r="D652" t="inlineStr">
         <is>
           <t>0x01,0x86,</t>
         </is>
       </c>
-      <c r="E631" t="inlineStr">
+      <c r="E652" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="F631" t="n">
-        <v>400</v>
-      </c>
-      <c r="G631" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H631" t="n">
+      <c r="F652" t="n">
+        <v>400</v>
+      </c>
+      <c r="G652" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H652" t="n">
         <v>390</v>
       </c>
-      <c r="I631" t="n">
+      <c r="I652" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46631,7 +48224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I443"/>
+  <dimension ref="A1:I444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63057,6 +64650,45 @@
         <v>400</v>
       </c>
       <c r="I443" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-03-12 16:35:34</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F444" t="n">
+        <v>400</v>
+      </c>
+      <c r="G444" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H444" t="n">
+        <v>400</v>
+      </c>
+      <c r="I444" t="n">
         <v>255</v>
       </c>
     </row>
@@ -63071,7 +64703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I637"/>
+  <dimension ref="A1:I662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81591,7 +83223,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -82072,7 +83704,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -82109,7 +83741,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -82553,7 +84185,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -82590,7 +84222,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -82627,7 +84259,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -82960,7 +84592,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -82997,7 +84629,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -83034,7 +84666,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -83071,7 +84703,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -83367,7 +84999,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -83404,7 +85036,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -83441,7 +85073,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -83478,7 +85110,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -83515,7 +85147,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -83774,7 +85406,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -83811,7 +85443,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -83848,7 +85480,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -83885,7 +85517,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -83922,7 +85554,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -83959,7 +85591,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -84107,7 +85739,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -84144,7 +85776,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -84181,7 +85813,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -84218,7 +85850,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -84255,7 +85887,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -84292,7 +85924,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -84329,7 +85961,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -84440,7 +86072,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -84477,7 +86109,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -84514,7 +86146,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -84551,7 +86183,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -84588,7 +86220,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -84625,7 +86257,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -84662,7 +86294,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -84699,7 +86331,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -84773,7 +86405,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -84810,7 +86442,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -84847,7 +86479,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -84884,7 +86516,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -84921,7 +86553,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -84958,7 +86590,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -84995,7 +86627,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -85032,7 +86664,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -85069,7 +86701,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -85106,7 +86738,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -85143,7 +86775,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -85180,7 +86812,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -85217,7 +86849,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -85254,7 +86886,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -85291,7 +86923,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -85328,7 +86960,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -85365,7 +86997,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -85402,7 +87034,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -85439,7 +87071,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -85476,7 +87108,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -85513,7 +87145,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -85550,7 +87182,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -85587,7 +87219,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -85624,7 +87256,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -85661,7 +87293,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -85698,7 +87330,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -85735,7 +87367,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -85772,7 +87404,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -85809,7 +87441,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -85846,7 +87478,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -85883,7 +87515,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -85920,7 +87552,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -85957,7 +87589,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -85994,7 +87626,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -86031,7 +87663,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -86068,7 +87700,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -86105,7 +87737,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -86142,7 +87774,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -86179,7 +87811,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -86216,7 +87848,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -86253,7 +87885,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -86290,7 +87922,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -86327,7 +87959,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -86364,7 +87996,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -86401,7 +88033,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -86438,7 +88070,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -86475,7 +88107,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -86512,7 +88144,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -86549,7 +88181,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -86586,7 +88218,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -86623,38 +88255,965 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>400</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>400</v>
+      </c>
+      <c r="I637" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>400</v>
+      </c>
+      <c r="G638" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H638" t="n">
+        <v>400</v>
+      </c>
+      <c r="I638" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>400</v>
+      </c>
+      <c r="G639" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H639" t="n">
+        <v>400</v>
+      </c>
+      <c r="I639" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>400</v>
+      </c>
+      <c r="G640" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H640" t="n">
+        <v>400</v>
+      </c>
+      <c r="I640" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>400</v>
+      </c>
+      <c r="G641" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H641" t="n">
+        <v>400</v>
+      </c>
+      <c r="I641" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>400</v>
+      </c>
+      <c r="G642" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H642" t="n">
+        <v>400</v>
+      </c>
+      <c r="I642" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>400</v>
+      </c>
+      <c r="G643" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H643" t="n">
+        <v>400</v>
+      </c>
+      <c r="I643" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>400</v>
+      </c>
+      <c r="G644" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H644" t="n">
+        <v>400</v>
+      </c>
+      <c r="I644" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>400</v>
+      </c>
+      <c r="G645" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H645" t="n">
+        <v>400</v>
+      </c>
+      <c r="I645" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>400</v>
+      </c>
+      <c r="G646" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H646" t="n">
+        <v>400</v>
+      </c>
+      <c r="I646" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>400</v>
+      </c>
+      <c r="G647" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H647" t="n">
+        <v>400</v>
+      </c>
+      <c r="I647" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>400</v>
+      </c>
+      <c r="G648" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H648" t="n">
+        <v>400</v>
+      </c>
+      <c r="I648" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>400</v>
+      </c>
+      <c r="G649" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H649" t="n">
+        <v>400</v>
+      </c>
+      <c r="I649" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>400</v>
+      </c>
+      <c r="G650" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H650" t="n">
+        <v>400</v>
+      </c>
+      <c r="I650" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>400</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H651" t="n">
+        <v>400</v>
+      </c>
+      <c r="I651" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>400</v>
+      </c>
+      <c r="G652" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H652" t="n">
+        <v>400</v>
+      </c>
+      <c r="I652" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>400</v>
+      </c>
+      <c r="G653" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H653" t="n">
+        <v>400</v>
+      </c>
+      <c r="I653" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>400</v>
+      </c>
+      <c r="G654" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H654" t="n">
+        <v>400</v>
+      </c>
+      <c r="I654" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>400</v>
+      </c>
+      <c r="G655" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H655" t="n">
+        <v>400</v>
+      </c>
+      <c r="I655" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>400</v>
+      </c>
+      <c r="G656" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H656" t="n">
+        <v>400</v>
+      </c>
+      <c r="I656" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>400</v>
+      </c>
+      <c r="G657" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H657" t="n">
+        <v>400</v>
+      </c>
+      <c r="I657" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>400</v>
+      </c>
+      <c r="G658" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H658" t="n">
+        <v>400</v>
+      </c>
+      <c r="I658" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>400</v>
+      </c>
+      <c r="G659" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H659" t="n">
+        <v>400</v>
+      </c>
+      <c r="I659" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
         <v>45728.26781763889</v>
       </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr">
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F637" t="n">
-        <v>400</v>
-      </c>
-      <c r="G637" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H637" t="n">
-        <v>400</v>
-      </c>
-      <c r="I637" t="n">
+      <c r="F660" t="n">
+        <v>400</v>
+      </c>
+      <c r="G660" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H660" t="n">
+        <v>400</v>
+      </c>
+      <c r="I660" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>400</v>
+      </c>
+      <c r="G661" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>400</v>
+      </c>
+      <c r="I661" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-03-12 18:25:39</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>400</v>
+      </c>
+      <c r="G662" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H662" t="n">
+        <v>400</v>
+      </c>
+      <c r="I662" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I638"/>
+  <dimension ref="A1:I661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45728.23201340278</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45728.23201340278</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -24020,10 +24020,8 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>2025-03-12 17:34:05</t>
-        </is>
+      <c r="A638" s="2" t="n">
+        <v>45727.73182605324</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -24055,6 +24053,857 @@
         <v>400</v>
       </c>
       <c r="I638" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>400</v>
+      </c>
+      <c r="G639" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H639" t="n">
+        <v>400</v>
+      </c>
+      <c r="I639" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>400</v>
+      </c>
+      <c r="G640" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H640" t="n">
+        <v>400</v>
+      </c>
+      <c r="I640" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>400</v>
+      </c>
+      <c r="G641" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H641" t="n">
+        <v>400</v>
+      </c>
+      <c r="I641" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>400</v>
+      </c>
+      <c r="G642" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H642" t="n">
+        <v>400</v>
+      </c>
+      <c r="I642" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>400</v>
+      </c>
+      <c r="G643" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H643" t="n">
+        <v>400</v>
+      </c>
+      <c r="I643" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>400</v>
+      </c>
+      <c r="G644" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H644" t="n">
+        <v>400</v>
+      </c>
+      <c r="I644" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>400</v>
+      </c>
+      <c r="G645" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H645" t="n">
+        <v>400</v>
+      </c>
+      <c r="I645" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>400</v>
+      </c>
+      <c r="G646" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H646" t="n">
+        <v>400</v>
+      </c>
+      <c r="I646" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>400</v>
+      </c>
+      <c r="G647" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H647" t="n">
+        <v>400</v>
+      </c>
+      <c r="I647" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>400</v>
+      </c>
+      <c r="G648" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H648" t="n">
+        <v>400</v>
+      </c>
+      <c r="I648" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>400</v>
+      </c>
+      <c r="G649" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H649" t="n">
+        <v>400</v>
+      </c>
+      <c r="I649" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>400</v>
+      </c>
+      <c r="G650" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H650" t="n">
+        <v>400</v>
+      </c>
+      <c r="I650" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>400</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H651" t="n">
+        <v>400</v>
+      </c>
+      <c r="I651" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>400</v>
+      </c>
+      <c r="G652" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H652" t="n">
+        <v>400</v>
+      </c>
+      <c r="I652" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>400</v>
+      </c>
+      <c r="G653" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H653" t="n">
+        <v>400</v>
+      </c>
+      <c r="I653" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>400</v>
+      </c>
+      <c r="G654" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H654" t="n">
+        <v>400</v>
+      </c>
+      <c r="I654" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>400</v>
+      </c>
+      <c r="G655" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H655" t="n">
+        <v>400</v>
+      </c>
+      <c r="I655" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>400</v>
+      </c>
+      <c r="G656" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H656" t="n">
+        <v>400</v>
+      </c>
+      <c r="I656" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>400</v>
+      </c>
+      <c r="G657" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H657" t="n">
+        <v>400</v>
+      </c>
+      <c r="I657" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>400</v>
+      </c>
+      <c r="G658" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H658" t="n">
+        <v>400</v>
+      </c>
+      <c r="I658" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45728.73211121528</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>400</v>
+      </c>
+      <c r="G659" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H659" t="n">
+        <v>400</v>
+      </c>
+      <c r="I659" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45728.73213231481</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F660" t="n">
+        <v>400</v>
+      </c>
+      <c r="G660" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H660" t="n">
+        <v>400</v>
+      </c>
+      <c r="I660" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45728.73215575232</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>400</v>
+      </c>
+      <c r="G661" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>400</v>
+      </c>
+      <c r="I661" t="n">
         <v>13</v>
       </c>
     </row>
@@ -24069,7 +24918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I652"/>
+  <dimension ref="A1:I676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42478,7 +43327,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -42996,7 +43845,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -43033,7 +43882,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -43514,7 +44363,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -43551,7 +44400,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -43588,7 +44437,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -43958,7 +44807,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -43995,7 +44844,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -44032,7 +44881,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -44069,7 +44918,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -44402,7 +45251,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -44439,7 +45288,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -44476,7 +45325,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -44513,7 +45362,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -44550,7 +45399,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -44846,7 +45695,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -44883,7 +45732,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -44920,7 +45769,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -44957,7 +45806,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -44994,7 +45843,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -45031,7 +45880,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -45216,7 +46065,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -45253,7 +46102,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -45290,7 +46139,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -45327,7 +46176,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -45364,7 +46213,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -45401,7 +46250,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -45438,7 +46287,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -45586,7 +46435,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -45623,7 +46472,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -45660,7 +46509,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -45697,7 +46546,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -45734,7 +46583,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -45771,7 +46620,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -45808,7 +46657,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -45845,7 +46694,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -45956,7 +46805,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -45993,7 +46842,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -46030,7 +46879,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -46067,7 +46916,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -46104,7 +46953,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -46141,7 +46990,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -46178,7 +47027,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -46215,7 +47064,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -46252,7 +47101,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -46289,7 +47138,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -46326,7 +47175,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -46363,7 +47212,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -46400,7 +47249,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -46437,7 +47286,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -46474,7 +47323,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -46511,7 +47360,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -46548,7 +47397,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -46585,7 +47434,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -46622,7 +47471,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -46659,7 +47508,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -46696,7 +47545,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -46733,7 +47582,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -46770,7 +47619,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -46807,7 +47656,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -46844,7 +47693,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -46881,7 +47730,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -46918,7 +47767,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -46955,7 +47804,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -46992,7 +47841,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -47029,7 +47878,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -47066,7 +47915,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -47103,7 +47952,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -47140,7 +47989,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -47177,7 +48026,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -47214,7 +48063,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -47251,7 +48100,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -47288,7 +48137,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -47325,7 +48174,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -47362,7 +48211,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -47399,7 +48248,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -47436,7 +48285,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -47473,7 +48322,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -47510,7 +48359,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -47547,7 +48396,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -47584,7 +48433,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -47621,7 +48470,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -47658,7 +48507,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -47695,7 +48544,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -47732,7 +48581,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -47769,7 +48618,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -47806,7 +48655,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -47843,7 +48692,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -47880,7 +48729,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -47917,7 +48766,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -47954,7 +48803,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -47968,12 +48817,12 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F646" t="n">
@@ -47983,15 +48832,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H646" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I646" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -48005,12 +48854,12 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F647" t="n">
@@ -48020,15 +48869,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H647" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I647" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -48042,12 +48891,12 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F648" t="n">
@@ -48057,15 +48906,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H648" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I648" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -48079,12 +48928,12 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F649" t="n">
@@ -48094,15 +48943,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H649" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I649" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45728.07999162037</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -48116,12 +48965,12 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F650" t="n">
@@ -48131,85 +48980,973 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H650" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I650" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>400</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H651" t="n">
+        <v>400</v>
+      </c>
+      <c r="I651" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>400</v>
+      </c>
+      <c r="G652" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H652" t="n">
+        <v>400</v>
+      </c>
+      <c r="I652" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>400</v>
+      </c>
+      <c r="G653" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H653" t="n">
+        <v>400</v>
+      </c>
+      <c r="I653" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>400</v>
+      </c>
+      <c r="G654" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H654" t="n">
+        <v>400</v>
+      </c>
+      <c r="I654" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>400</v>
+      </c>
+      <c r="G655" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H655" t="n">
+        <v>400</v>
+      </c>
+      <c r="I655" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>400</v>
+      </c>
+      <c r="G656" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H656" t="n">
+        <v>400</v>
+      </c>
+      <c r="I656" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>400</v>
+      </c>
+      <c r="G657" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H657" t="n">
+        <v>400</v>
+      </c>
+      <c r="I657" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>400</v>
+      </c>
+      <c r="G658" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H658" t="n">
+        <v>400</v>
+      </c>
+      <c r="I658" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>400</v>
+      </c>
+      <c r="G659" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H659" t="n">
+        <v>400</v>
+      </c>
+      <c r="I659" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F660" t="n">
+        <v>400</v>
+      </c>
+      <c r="G660" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H660" t="n">
+        <v>400</v>
+      </c>
+      <c r="I660" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>400</v>
+      </c>
+      <c r="G661" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>400</v>
+      </c>
+      <c r="I661" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>400</v>
+      </c>
+      <c r="G662" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H662" t="n">
+        <v>400</v>
+      </c>
+      <c r="I662" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>400</v>
+      </c>
+      <c r="G663" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H663" t="n">
+        <v>400</v>
+      </c>
+      <c r="I663" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>400</v>
+      </c>
+      <c r="G664" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H664" t="n">
+        <v>390</v>
+      </c>
+      <c r="I664" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>400</v>
+      </c>
+      <c r="G665" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H665" t="n">
+        <v>390</v>
+      </c>
+      <c r="I665" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>400</v>
+      </c>
+      <c r="G666" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H666" t="n">
+        <v>390</v>
+      </c>
+      <c r="I666" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>400</v>
+      </c>
+      <c r="G667" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H667" t="n">
+        <v>390</v>
+      </c>
+      <c r="I667" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>400</v>
+      </c>
+      <c r="G668" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H668" t="n">
+        <v>390</v>
+      </c>
+      <c r="I668" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>400</v>
+      </c>
+      <c r="G669" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H669" t="n">
+        <v>390</v>
+      </c>
+      <c r="I669" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
         <v>45728.07999162037</v>
       </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C651" t="inlineStr">
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D651" t="inlineStr">
+      <c r="D670" t="inlineStr">
         <is>
           <t>0x01,0x86,</t>
         </is>
       </c>
-      <c r="E651" t="inlineStr">
+      <c r="E670" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="F651" t="n">
-        <v>400</v>
-      </c>
-      <c r="G651" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H651" t="n">
+      <c r="F670" t="n">
+        <v>400</v>
+      </c>
+      <c r="G670" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H670" t="n">
         <v>390</v>
       </c>
-      <c r="I651" t="n">
+      <c r="I670" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>2025-03-12 13:55:11</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr">
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D652" t="inlineStr">
+      <c r="D671" t="inlineStr">
         <is>
           <t>0x01,0x86,</t>
         </is>
       </c>
-      <c r="E652" t="inlineStr">
+      <c r="E671" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="F652" t="n">
-        <v>400</v>
-      </c>
-      <c r="G652" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H652" t="n">
+      <c r="F671" t="n">
+        <v>400</v>
+      </c>
+      <c r="G671" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H671" t="n">
         <v>390</v>
       </c>
-      <c r="I652" t="n">
+      <c r="I671" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>400</v>
+      </c>
+      <c r="G672" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H672" t="n">
+        <v>390</v>
+      </c>
+      <c r="I672" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45728.58008952547</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>400</v>
+      </c>
+      <c r="G673" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H673" t="n">
+        <v>390</v>
+      </c>
+      <c r="I673" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45728.5801115625</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>400</v>
+      </c>
+      <c r="G674" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H674" t="n">
+        <v>390</v>
+      </c>
+      <c r="I674" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45728.58013472222</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>400</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H675" t="n">
+        <v>390</v>
+      </c>
+      <c r="I675" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-03-13 01:55:23</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>400</v>
+      </c>
+      <c r="G676" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H676" t="n">
+        <v>390</v>
+      </c>
+      <c r="I676" t="n">
         <v>4</v>
       </c>
     </row>
@@ -64703,7 +66440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I662"/>
+  <dimension ref="A1:I688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83260,7 +84997,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -83778,7 +85515,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -83815,7 +85552,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -84296,7 +86033,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -84333,7 +86070,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -84370,7 +86107,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -84740,7 +86477,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -84777,7 +86514,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -84814,7 +86551,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -84851,7 +86588,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -85184,7 +86921,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -85221,7 +86958,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -85258,7 +86995,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -85295,7 +87032,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -85332,7 +87069,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -85628,7 +87365,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -85665,7 +87402,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -85702,7 +87439,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -85739,7 +87476,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -85776,7 +87513,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -85813,7 +87550,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -85998,7 +87735,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -86035,7 +87772,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -86072,7 +87809,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -86109,7 +87846,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -86146,7 +87883,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -86183,7 +87920,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -86220,7 +87957,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -86368,7 +88105,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -86405,7 +88142,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -86442,7 +88179,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -86479,7 +88216,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -86516,7 +88253,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -86553,7 +88290,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -86590,7 +88327,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -86627,7 +88364,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -86738,7 +88475,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -86775,7 +88512,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -86812,7 +88549,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -86849,7 +88586,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -86886,7 +88623,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -86923,7 +88660,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -86960,7 +88697,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -86997,7 +88734,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -87034,7 +88771,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -87071,7 +88808,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -87108,7 +88845,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -87145,7 +88882,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -87182,7 +88919,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -87219,7 +88956,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -87256,7 +88993,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -87293,7 +89030,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -87330,7 +89067,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -87367,7 +89104,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -87404,7 +89141,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -87441,7 +89178,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -87478,7 +89215,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -87515,7 +89252,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -87552,7 +89289,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -87589,7 +89326,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -87626,7 +89363,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -87663,7 +89400,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -87700,7 +89437,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -87737,7 +89474,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -87774,7 +89511,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -87811,7 +89548,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -87848,7 +89585,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -87885,7 +89622,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -87922,7 +89659,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -87959,7 +89696,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -87996,7 +89733,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -88033,7 +89770,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -88070,7 +89807,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -88107,7 +89844,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -88144,7 +89881,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -88181,7 +89918,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -88218,7 +89955,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -88255,7 +89992,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -88292,7 +90029,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -88329,7 +90066,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -88366,7 +90103,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -88403,7 +90140,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -88440,7 +90177,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -88477,7 +90214,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -88514,7 +90251,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -88551,7 +90288,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -88588,7 +90325,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -88625,7 +90362,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -88662,7 +90399,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -88699,7 +90436,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -88736,7 +90473,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -88773,7 +90510,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -88810,7 +90547,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -88847,7 +90584,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -88884,7 +90621,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -88921,7 +90658,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -88958,7 +90695,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -88995,7 +90732,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -89032,7 +90769,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -89069,7 +90806,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -89106,7 +90843,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45728.26781763889</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -89143,7 +90880,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45728.26781763889</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
@@ -89179,10 +90916,8 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>2025-03-12 18:25:39</t>
-        </is>
+      <c r="A662" s="2" t="n">
+        <v>45727.72993271991</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
@@ -89214,6 +90949,968 @@
         <v>400</v>
       </c>
       <c r="I662" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>400</v>
+      </c>
+      <c r="G663" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H663" t="n">
+        <v>400</v>
+      </c>
+      <c r="I663" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>400</v>
+      </c>
+      <c r="G664" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H664" t="n">
+        <v>400</v>
+      </c>
+      <c r="I664" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>400</v>
+      </c>
+      <c r="G665" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H665" t="n">
+        <v>400</v>
+      </c>
+      <c r="I665" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>400</v>
+      </c>
+      <c r="G666" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H666" t="n">
+        <v>400</v>
+      </c>
+      <c r="I666" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>400</v>
+      </c>
+      <c r="G667" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H667" t="n">
+        <v>400</v>
+      </c>
+      <c r="I667" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>400</v>
+      </c>
+      <c r="G668" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H668" t="n">
+        <v>400</v>
+      </c>
+      <c r="I668" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>400</v>
+      </c>
+      <c r="G669" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H669" t="n">
+        <v>400</v>
+      </c>
+      <c r="I669" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>400</v>
+      </c>
+      <c r="G670" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H670" t="n">
+        <v>400</v>
+      </c>
+      <c r="I670" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>400</v>
+      </c>
+      <c r="G671" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H671" t="n">
+        <v>400</v>
+      </c>
+      <c r="I671" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>400</v>
+      </c>
+      <c r="G672" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H672" t="n">
+        <v>400</v>
+      </c>
+      <c r="I672" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>400</v>
+      </c>
+      <c r="G673" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H673" t="n">
+        <v>400</v>
+      </c>
+      <c r="I673" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>400</v>
+      </c>
+      <c r="G674" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H674" t="n">
+        <v>400</v>
+      </c>
+      <c r="I674" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>400</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H675" t="n">
+        <v>400</v>
+      </c>
+      <c r="I675" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>400</v>
+      </c>
+      <c r="G676" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H676" t="n">
+        <v>400</v>
+      </c>
+      <c r="I676" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>400</v>
+      </c>
+      <c r="G677" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H677" t="n">
+        <v>400</v>
+      </c>
+      <c r="I677" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>400</v>
+      </c>
+      <c r="G678" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H678" t="n">
+        <v>400</v>
+      </c>
+      <c r="I678" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>400</v>
+      </c>
+      <c r="G679" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H679" t="n">
+        <v>400</v>
+      </c>
+      <c r="I679" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>400</v>
+      </c>
+      <c r="G680" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H680" t="n">
+        <v>400</v>
+      </c>
+      <c r="I680" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>400</v>
+      </c>
+      <c r="G681" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H681" t="n">
+        <v>400</v>
+      </c>
+      <c r="I681" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>400</v>
+      </c>
+      <c r="G682" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H682" t="n">
+        <v>400</v>
+      </c>
+      <c r="I682" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>400</v>
+      </c>
+      <c r="G683" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H683" t="n">
+        <v>400</v>
+      </c>
+      <c r="I683" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>400</v>
+      </c>
+      <c r="G684" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H684" t="n">
+        <v>400</v>
+      </c>
+      <c r="I684" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>400</v>
+      </c>
+      <c r="G685" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H685" t="n">
+        <v>400</v>
+      </c>
+      <c r="I685" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45728.76791525463</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>400</v>
+      </c>
+      <c r="G686" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H686" t="n">
+        <v>400</v>
+      </c>
+      <c r="I686" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45728.76793732639</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>400</v>
+      </c>
+      <c r="G687" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H687" t="n">
+        <v>400</v>
+      </c>
+      <c r="I687" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45728.76796047454</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>400</v>
+      </c>
+      <c r="G688" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H688" t="n">
+        <v>400</v>
+      </c>
+      <c r="I688" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45728.23201340278</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45728.23201340278</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45728.23201340278</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45728.73211121528</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45728.73213231481</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -24872,38 +24872,965 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>400</v>
+      </c>
+      <c r="G661" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>400</v>
+      </c>
+      <c r="I661" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>400</v>
+      </c>
+      <c r="G662" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H662" t="n">
+        <v>400</v>
+      </c>
+      <c r="I662" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>400</v>
+      </c>
+      <c r="G663" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H663" t="n">
+        <v>400</v>
+      </c>
+      <c r="I663" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>400</v>
+      </c>
+      <c r="G664" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H664" t="n">
+        <v>400</v>
+      </c>
+      <c r="I664" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>400</v>
+      </c>
+      <c r="G665" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H665" t="n">
+        <v>400</v>
+      </c>
+      <c r="I665" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>400</v>
+      </c>
+      <c r="G666" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H666" t="n">
+        <v>400</v>
+      </c>
+      <c r="I666" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>400</v>
+      </c>
+      <c r="G667" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H667" t="n">
+        <v>400</v>
+      </c>
+      <c r="I667" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>400</v>
+      </c>
+      <c r="G668" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H668" t="n">
+        <v>400</v>
+      </c>
+      <c r="I668" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>400</v>
+      </c>
+      <c r="G669" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H669" t="n">
+        <v>400</v>
+      </c>
+      <c r="I669" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>400</v>
+      </c>
+      <c r="G670" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H670" t="n">
+        <v>400</v>
+      </c>
+      <c r="I670" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>400</v>
+      </c>
+      <c r="G671" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H671" t="n">
+        <v>400</v>
+      </c>
+      <c r="I671" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>400</v>
+      </c>
+      <c r="G672" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H672" t="n">
+        <v>400</v>
+      </c>
+      <c r="I672" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>400</v>
+      </c>
+      <c r="G673" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H673" t="n">
+        <v>400</v>
+      </c>
+      <c r="I673" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>400</v>
+      </c>
+      <c r="G674" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H674" t="n">
+        <v>400</v>
+      </c>
+      <c r="I674" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>400</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H675" t="n">
+        <v>400</v>
+      </c>
+      <c r="I675" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>400</v>
+      </c>
+      <c r="G676" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H676" t="n">
+        <v>400</v>
+      </c>
+      <c r="I676" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>400</v>
+      </c>
+      <c r="G677" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H677" t="n">
+        <v>400</v>
+      </c>
+      <c r="I677" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>400</v>
+      </c>
+      <c r="G678" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H678" t="n">
+        <v>400</v>
+      </c>
+      <c r="I678" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>400</v>
+      </c>
+      <c r="G679" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H679" t="n">
+        <v>400</v>
+      </c>
+      <c r="I679" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45728.73211121528</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>400</v>
+      </c>
+      <c r="G680" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H680" t="n">
+        <v>400</v>
+      </c>
+      <c r="I680" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45728.73211121528</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>400</v>
+      </c>
+      <c r="G681" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H681" t="n">
+        <v>400</v>
+      </c>
+      <c r="I681" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45728.73213231481</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>400</v>
+      </c>
+      <c r="G682" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H682" t="n">
+        <v>400</v>
+      </c>
+      <c r="I682" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45728.73213231481</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>400</v>
+      </c>
+      <c r="G683" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H683" t="n">
+        <v>400</v>
+      </c>
+      <c r="I683" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
         <v>45728.73215575232</v>
       </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr">
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr">
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F661" t="n">
-        <v>400</v>
-      </c>
-      <c r="G661" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H661" t="n">
-        <v>400</v>
-      </c>
-      <c r="I661" t="n">
+      <c r="F684" t="n">
+        <v>400</v>
+      </c>
+      <c r="G684" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H684" t="n">
+        <v>400</v>
+      </c>
+      <c r="I684" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45728.73215575232</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>400</v>
+      </c>
+      <c r="G685" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H685" t="n">
+        <v>400</v>
+      </c>
+      <c r="I685" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-03-13 05:34:18</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>400</v>
+      </c>
+      <c r="G686" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H686" t="n">
+        <v>400</v>
+      </c>
+      <c r="I686" t="n">
         <v>13</v>
       </c>
     </row>
@@ -24918,7 +25845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I676"/>
+  <dimension ref="A1:I700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,7 +44291,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -43919,7 +44846,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -43956,7 +44883,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -44474,7 +45401,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -44511,7 +45438,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -44548,7 +45475,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -44955,7 +45882,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -44992,7 +45919,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -45029,7 +45956,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -45066,7 +45993,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -45436,7 +46363,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -45473,7 +46400,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -45510,7 +46437,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -45547,7 +46474,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -45584,7 +46511,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -45917,7 +46844,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -45954,7 +46881,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -45991,7 +46918,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -46028,7 +46955,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -46065,7 +46992,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -46102,7 +47029,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -46324,7 +47251,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -46361,7 +47288,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -46398,7 +47325,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -46435,7 +47362,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -46472,7 +47399,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -46509,7 +47436,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -46546,7 +47473,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -46731,7 +47658,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -46768,7 +47695,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -46805,7 +47732,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -46842,7 +47769,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -46879,7 +47806,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -46916,7 +47843,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -46953,7 +47880,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -46990,7 +47917,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -47138,7 +48065,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -47175,7 +48102,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -47212,7 +48139,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -47249,7 +48176,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -47286,7 +48213,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -47323,7 +48250,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -47360,7 +48287,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -47397,7 +48324,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -47434,7 +48361,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -47471,7 +48398,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -47508,7 +48435,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -47545,7 +48472,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -47582,7 +48509,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -47619,7 +48546,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -47656,7 +48583,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -47693,7 +48620,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -47730,7 +48657,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -47767,7 +48694,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -47804,7 +48731,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -47841,7 +48768,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -47878,7 +48805,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -47915,7 +48842,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -47952,7 +48879,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -47989,7 +48916,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -48026,7 +48953,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -48063,7 +48990,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -48100,7 +49027,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -48137,7 +49064,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -48174,7 +49101,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -48211,7 +49138,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -48248,7 +49175,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -48285,7 +49212,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -48322,7 +49249,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -48359,7 +49286,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -48396,7 +49323,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -48433,7 +49360,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -48470,7 +49397,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -48507,7 +49434,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -48544,7 +49471,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -48581,7 +49508,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -48618,7 +49545,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -48655,7 +49582,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -48692,7 +49619,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -48729,7 +49656,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -48766,7 +49693,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -48803,7 +49730,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -48840,7 +49767,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -48877,7 +49804,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -48914,7 +49841,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -48951,7 +49878,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -48988,7 +49915,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -49025,7 +49952,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -49062,7 +49989,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -49099,7 +50026,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -49136,7 +50063,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -49173,7 +50100,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -49210,7 +50137,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -49247,7 +50174,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -49284,7 +50211,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -49321,7 +50248,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -49358,7 +50285,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
@@ -49395,7 +50322,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
@@ -49432,7 +50359,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
@@ -49469,7 +50396,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
@@ -49483,12 +50410,12 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F664" t="n">
@@ -49498,15 +50425,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H664" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I664" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
@@ -49520,12 +50447,12 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F665" t="n">
@@ -49535,15 +50462,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H665" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I665" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
@@ -49557,12 +50484,12 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F666" t="n">
@@ -49572,15 +50499,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H666" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I666" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
@@ -49594,12 +50521,12 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F667" t="n">
@@ -49609,15 +50536,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H667" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I667" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
@@ -49631,12 +50558,12 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F668" t="n">
@@ -49646,15 +50573,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H668" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I668" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
@@ -49668,12 +50595,12 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F669" t="n">
@@ -49683,15 +50610,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H669" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I669" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45728.07999162037</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
@@ -49705,12 +50632,12 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F670" t="n">
@@ -49720,15 +50647,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H670" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I670" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45728.07999162037</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
@@ -49742,12 +50669,12 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F671" t="n">
@@ -49757,15 +50684,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H671" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I671" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45728.07999162037</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
@@ -49779,12 +50706,12 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F672" t="n">
@@ -49794,15 +50721,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H672" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I672" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45728.58008952547</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
@@ -49816,12 +50743,12 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F673" t="n">
@@ -49831,15 +50758,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H673" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I673" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45728.5801115625</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -49853,12 +50780,12 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F674" t="n">
@@ -49868,85 +50795,973 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H674" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I674" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>400</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H675" t="n">
+        <v>400</v>
+      </c>
+      <c r="I675" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>400</v>
+      </c>
+      <c r="G676" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H676" t="n">
+        <v>400</v>
+      </c>
+      <c r="I676" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>400</v>
+      </c>
+      <c r="G677" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H677" t="n">
+        <v>400</v>
+      </c>
+      <c r="I677" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>400</v>
+      </c>
+      <c r="G678" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H678" t="n">
+        <v>400</v>
+      </c>
+      <c r="I678" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>400</v>
+      </c>
+      <c r="G679" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H679" t="n">
+        <v>400</v>
+      </c>
+      <c r="I679" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>400</v>
+      </c>
+      <c r="G680" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H680" t="n">
+        <v>400</v>
+      </c>
+      <c r="I680" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>400</v>
+      </c>
+      <c r="G681" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H681" t="n">
+        <v>400</v>
+      </c>
+      <c r="I681" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>400</v>
+      </c>
+      <c r="G682" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H682" t="n">
+        <v>390</v>
+      </c>
+      <c r="I682" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>400</v>
+      </c>
+      <c r="G683" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H683" t="n">
+        <v>390</v>
+      </c>
+      <c r="I683" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>400</v>
+      </c>
+      <c r="G684" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H684" t="n">
+        <v>390</v>
+      </c>
+      <c r="I684" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>400</v>
+      </c>
+      <c r="G685" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H685" t="n">
+        <v>390</v>
+      </c>
+      <c r="I685" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>400</v>
+      </c>
+      <c r="G686" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H686" t="n">
+        <v>390</v>
+      </c>
+      <c r="I686" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>400</v>
+      </c>
+      <c r="G687" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H687" t="n">
+        <v>390</v>
+      </c>
+      <c r="I687" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>400</v>
+      </c>
+      <c r="G688" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H688" t="n">
+        <v>390</v>
+      </c>
+      <c r="I688" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>400</v>
+      </c>
+      <c r="G689" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H689" t="n">
+        <v>390</v>
+      </c>
+      <c r="I689" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>400</v>
+      </c>
+      <c r="G690" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H690" t="n">
+        <v>390</v>
+      </c>
+      <c r="I690" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>400</v>
+      </c>
+      <c r="G691" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H691" t="n">
+        <v>390</v>
+      </c>
+      <c r="I691" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>400</v>
+      </c>
+      <c r="G692" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H692" t="n">
+        <v>390</v>
+      </c>
+      <c r="I692" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>400</v>
+      </c>
+      <c r="G693" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H693" t="n">
+        <v>390</v>
+      </c>
+      <c r="I693" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45728.58008952547</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>400</v>
+      </c>
+      <c r="G694" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H694" t="n">
+        <v>390</v>
+      </c>
+      <c r="I694" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45728.58008952547</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>400</v>
+      </c>
+      <c r="G695" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H695" t="n">
+        <v>390</v>
+      </c>
+      <c r="I695" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45728.5801115625</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>400</v>
+      </c>
+      <c r="G696" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H696" t="n">
+        <v>390</v>
+      </c>
+      <c r="I696" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45728.5801115625</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>400</v>
+      </c>
+      <c r="G697" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H697" t="n">
+        <v>390</v>
+      </c>
+      <c r="I697" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
         <v>45728.58013472222</v>
       </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr">
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D675" t="inlineStr">
+      <c r="D698" t="inlineStr">
         <is>
           <t>0x01,0x86,</t>
         </is>
       </c>
-      <c r="E675" t="inlineStr">
+      <c r="E698" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="F675" t="n">
-        <v>400</v>
-      </c>
-      <c r="G675" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H675" t="n">
+      <c r="F698" t="n">
+        <v>400</v>
+      </c>
+      <c r="G698" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H698" t="n">
         <v>390</v>
       </c>
-      <c r="I675" t="n">
+      <c r="I698" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45728.58013472222</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>400</v>
+      </c>
+      <c r="G699" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H699" t="n">
+        <v>390</v>
+      </c>
+      <c r="I699" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
         <is>
           <t>2025-03-13 01:55:23</t>
         </is>
       </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr">
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D676" t="inlineStr">
+      <c r="D700" t="inlineStr">
         <is>
           <t>0x01,0x86,</t>
         </is>
       </c>
-      <c r="E676" t="inlineStr">
+      <c r="E700" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="F676" t="n">
-        <v>400</v>
-      </c>
-      <c r="G676" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H676" t="n">
+      <c r="F700" t="n">
+        <v>400</v>
+      </c>
+      <c r="G700" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H700" t="n">
         <v>390</v>
       </c>
-      <c r="I676" t="n">
+      <c r="I700" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49961,7 +51776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I444"/>
+  <dimension ref="A1:I445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66426,6 +68241,45 @@
         <v>400</v>
       </c>
       <c r="I444" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-03-13 04:35:34</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F445" t="n">
+        <v>400</v>
+      </c>
+      <c r="G445" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H445" t="n">
+        <v>400</v>
+      </c>
+      <c r="I445" t="n">
         <v>255</v>
       </c>
     </row>
@@ -66440,7 +68294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I688"/>
+  <dimension ref="A1:I716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85034,7 +86888,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -85589,7 +87443,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -85626,7 +87480,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -86144,7 +87998,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -86181,7 +88035,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -86218,7 +88072,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -86625,7 +88479,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -86662,7 +88516,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -86699,7 +88553,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -86736,7 +88590,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -87106,7 +88960,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -87143,7 +88997,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -87180,7 +89034,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -87217,7 +89071,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -87254,7 +89108,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -87587,7 +89441,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -87624,7 +89478,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -87661,7 +89515,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -87698,7 +89552,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -87735,7 +89589,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -87772,7 +89626,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -87994,7 +89848,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -88031,7 +89885,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -88068,7 +89922,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -88105,7 +89959,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -88142,7 +89996,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -88179,7 +90033,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -88216,7 +90070,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -88401,7 +90255,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -88438,7 +90292,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -88475,7 +90329,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -88512,7 +90366,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -88549,7 +90403,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -88586,7 +90440,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -88623,7 +90477,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -88660,7 +90514,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -88808,7 +90662,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -88845,7 +90699,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -88882,7 +90736,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -88919,7 +90773,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -88956,7 +90810,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -88993,7 +90847,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -89030,7 +90884,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -89067,7 +90921,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -89104,7 +90958,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -89141,7 +90995,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -89178,7 +91032,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -89215,7 +91069,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -89252,7 +91106,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -89289,7 +91143,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -89326,7 +91180,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -89363,7 +91217,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -89400,7 +91254,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -89437,7 +91291,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -89474,7 +91328,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -89511,7 +91365,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -89548,7 +91402,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -89585,7 +91439,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -89622,7 +91476,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -89659,7 +91513,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -89696,7 +91550,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -89733,7 +91587,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -89770,7 +91624,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -89807,7 +91661,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -89844,7 +91698,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -89881,7 +91735,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -89918,7 +91772,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -89955,7 +91809,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -89992,7 +91846,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -90029,7 +91883,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -90066,7 +91920,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -90103,7 +91957,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -90140,7 +91994,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -90177,7 +92031,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -90214,7 +92068,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -90251,7 +92105,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -90288,7 +92142,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -90325,7 +92179,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -90362,7 +92216,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -90399,7 +92253,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -90436,7 +92290,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -90473,7 +92327,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -90510,7 +92364,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -90547,7 +92401,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -90584,7 +92438,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -90621,7 +92475,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -90658,7 +92512,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -90695,7 +92549,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -90732,7 +92586,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -90769,7 +92623,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -90806,7 +92660,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -90843,7 +92697,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -90880,7 +92734,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
@@ -90917,7 +92771,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
@@ -90954,7 +92808,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
@@ -90991,7 +92845,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
@@ -91028,7 +92882,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
@@ -91065,7 +92919,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
@@ -91102,7 +92956,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
@@ -91139,7 +92993,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
@@ -91176,7 +93030,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
@@ -91213,7 +93067,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
@@ -91250,7 +93104,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
@@ -91287,7 +93141,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
@@ -91324,7 +93178,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
@@ -91361,7 +93215,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -91398,7 +93252,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
@@ -91435,7 +93289,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
@@ -91472,7 +93326,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
@@ -91509,7 +93363,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
@@ -91546,7 +93400,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
@@ -91583,7 +93437,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
@@ -91620,7 +93474,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
@@ -91657,7 +93511,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
@@ -91694,7 +93548,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45728.26781763889</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
@@ -91731,7 +93585,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>45728.26781763889</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
@@ -91768,7 +93622,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45728.26781763889</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
@@ -91805,7 +93659,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45728.76791525463</v>
+        <v>45728.23005300926</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
@@ -91842,7 +93696,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>45728.76793732639</v>
+        <v>45728.23005300926</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
@@ -91879,38 +93733,1076 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>400</v>
+      </c>
+      <c r="G688" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H688" t="n">
+        <v>400</v>
+      </c>
+      <c r="I688" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>400</v>
+      </c>
+      <c r="G689" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H689" t="n">
+        <v>400</v>
+      </c>
+      <c r="I689" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>400</v>
+      </c>
+      <c r="G690" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H690" t="n">
+        <v>400</v>
+      </c>
+      <c r="I690" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>400</v>
+      </c>
+      <c r="G691" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H691" t="n">
+        <v>400</v>
+      </c>
+      <c r="I691" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>400</v>
+      </c>
+      <c r="G692" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H692" t="n">
+        <v>400</v>
+      </c>
+      <c r="I692" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>400</v>
+      </c>
+      <c r="G693" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H693" t="n">
+        <v>400</v>
+      </c>
+      <c r="I693" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>400</v>
+      </c>
+      <c r="G694" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H694" t="n">
+        <v>400</v>
+      </c>
+      <c r="I694" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>400</v>
+      </c>
+      <c r="G695" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H695" t="n">
+        <v>400</v>
+      </c>
+      <c r="I695" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>400</v>
+      </c>
+      <c r="G696" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H696" t="n">
+        <v>400</v>
+      </c>
+      <c r="I696" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>400</v>
+      </c>
+      <c r="G697" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H697" t="n">
+        <v>400</v>
+      </c>
+      <c r="I697" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>400</v>
+      </c>
+      <c r="G698" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H698" t="n">
+        <v>400</v>
+      </c>
+      <c r="I698" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>400</v>
+      </c>
+      <c r="G699" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H699" t="n">
+        <v>400</v>
+      </c>
+      <c r="I699" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>400</v>
+      </c>
+      <c r="G700" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H700" t="n">
+        <v>400</v>
+      </c>
+      <c r="I700" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>400</v>
+      </c>
+      <c r="G701" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H701" t="n">
+        <v>400</v>
+      </c>
+      <c r="I701" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>400</v>
+      </c>
+      <c r="G702" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H702" t="n">
+        <v>400</v>
+      </c>
+      <c r="I702" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>400</v>
+      </c>
+      <c r="G703" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H703" t="n">
+        <v>400</v>
+      </c>
+      <c r="I703" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>400</v>
+      </c>
+      <c r="G704" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H704" t="n">
+        <v>400</v>
+      </c>
+      <c r="I704" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>400</v>
+      </c>
+      <c r="G705" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H705" t="n">
+        <v>400</v>
+      </c>
+      <c r="I705" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>400</v>
+      </c>
+      <c r="G706" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H706" t="n">
+        <v>400</v>
+      </c>
+      <c r="I706" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>400</v>
+      </c>
+      <c r="G707" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H707" t="n">
+        <v>400</v>
+      </c>
+      <c r="I707" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>400</v>
+      </c>
+      <c r="G708" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H708" t="n">
+        <v>400</v>
+      </c>
+      <c r="I708" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F709" t="n">
+        <v>400</v>
+      </c>
+      <c r="G709" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H709" t="n">
+        <v>400</v>
+      </c>
+      <c r="I709" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>45728.76791525463</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F710" t="n">
+        <v>400</v>
+      </c>
+      <c r="G710" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H710" t="n">
+        <v>400</v>
+      </c>
+      <c r="I710" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>45728.76791525463</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F711" t="n">
+        <v>400</v>
+      </c>
+      <c r="G711" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H711" t="n">
+        <v>400</v>
+      </c>
+      <c r="I711" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45728.76793732639</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F712" t="n">
+        <v>400</v>
+      </c>
+      <c r="G712" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H712" t="n">
+        <v>400</v>
+      </c>
+      <c r="I712" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45728.76793732639</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F713" t="n">
+        <v>400</v>
+      </c>
+      <c r="G713" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H713" t="n">
+        <v>400</v>
+      </c>
+      <c r="I713" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
         <v>45728.76796047454</v>
       </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E688" t="inlineStr">
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F688" t="n">
-        <v>400</v>
-      </c>
-      <c r="G688" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H688" t="n">
-        <v>400</v>
-      </c>
-      <c r="I688" t="n">
+      <c r="F714" t="n">
+        <v>400</v>
+      </c>
+      <c r="G714" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H714" t="n">
+        <v>400</v>
+      </c>
+      <c r="I714" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45728.76796047454</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F715" t="n">
+        <v>400</v>
+      </c>
+      <c r="G715" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H715" t="n">
+        <v>400</v>
+      </c>
+      <c r="I715" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-03-13 06:25:51</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F716" t="n">
+        <v>400</v>
+      </c>
+      <c r="G716" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H716" t="n">
+        <v>400</v>
+      </c>
+      <c r="I716" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,10 +1376,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-13 05:34:18</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>45729.23225322917</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1411,6 +1409,80 @@
         <v>400</v>
       </c>
       <c r="I26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45729.23227436343</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45729.23229758102</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1420,999 +1492,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45725.07909302083</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45725.07911518519</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45725.07913833333</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45725.57923533564</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45725.57925716435</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45725.57928042824</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45726.07937777778</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45726.07939922454</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45726.07942256945</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45726.57952</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45726.57954204861</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45726.57956549768</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45727.07966211806</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45727.07968420139</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45727.07970724537</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45727.57980457176</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45727.57982650463</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45727.57985059028</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45728.07994677083</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H20" t="n">
-        <v>390</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45728.07996869213</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H21" t="n">
-        <v>390</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45728.07999162037</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H22" t="n">
-        <v>390</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45728.58008952547</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H23" t="n">
-        <v>390</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45728.5801115625</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H24" t="n">
-        <v>390</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45728.58013472222</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H25" t="n">
-        <v>390</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-13 01:55:23</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H26" t="n">
-        <v>390</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2475,6 +1554,1110 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45725.07909302083</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45725.07911518519</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45725.57923533564</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H20" t="n">
+        <v>390</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H21" t="n">
+        <v>390</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H22" t="n">
+        <v>390</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45728.58008952547</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H23" t="n">
+        <v>390</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45728.5801115625</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H24" t="n">
+        <v>390</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45728.58013472222</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>390</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45729.08023151621</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>390</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45729.08025335648</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>390</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45729.08027658565</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>390</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-13 13:55:35</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>390</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45725.22919952546</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3473,10 +3656,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-13 06:25:51</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45729.26805734954</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3508,6 +3689,80 @@
         <v>400</v>
       </c>
       <c r="I29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.26807929398</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.26810284722</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3522,7 +3777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4577,10 +4832,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-13 06:25:51</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45729.26805734954</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4612,6 +4865,80 @@
         <v>400</v>
       </c>
       <c r="I29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.26807929398</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.26810284722</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,6 +1483,117 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.73239443287</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.73241640046</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.73243972223</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1497,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2552,10 +2663,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-13 13:55:35</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45729.58037369213</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2587,6 +2696,119 @@
         <v>390</v>
       </c>
       <c r="I29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.58039555555</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>390</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.58041870371</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>390</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-14 01:55:48</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>390</v>
+      </c>
+      <c r="I32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2601,7 +2823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3763,6 +3985,45 @@
         <v>400</v>
       </c>
       <c r="I31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-13 18:26:04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3777,7 +4038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4942,6 +5203,45 @@
         <v>3</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-13 18:26:04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1608,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2770,45 +2770,6 @@
         <v>390</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-14 01:55:48</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H32" t="n">
-        <v>390</v>
-      </c>
-      <c r="I32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2823,7 +2784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3989,10 +3950,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-13 18:26:04</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>45729.76820116898</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4024,6 +3983,80 @@
         <v>400</v>
       </c>
       <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45729.7682231713</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45729.76824641204</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4038,7 +4071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5204,10 +5237,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-13 18:26:04</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>45729.76820116898</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -5239,6 +5270,80 @@
         <v>400</v>
       </c>
       <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45729.7682231713</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45729.76824641204</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
     </row>
